--- a/data/Eventos_Egressos.xlsx
+++ b/data/Eventos_Egressos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,70 +679,67 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.. 13ª Mostra Cinema e Direitos Humanos no CEMUD, UEMG - MG1 - Edição de segunda-feira, 15/04/2024. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>SPOHR, M. ; LEMOS, R. ; BORTONE, E. ; GIL, V. ;GARRIDO, A. G.. II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; BARROS, J. V . 13ª Mostra Cinema e Direitos Humanos no CEMUD, UEMG - Programa Panorama Geral Divi, com Ana Paula Silva. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>ARAUJO, M. P. N. ;MANGUEIRA, B.; CORREA, L. . História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; PEREIRA, W. S. ; AMARAL, D. V. O. . Diálogos arquivísticos: narrativa, esquecimento e resgate da memória Divinopolitana. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
+          <t>ARAUJO, M. P. N. ; CACERES, L. S. ;MANGUEIRA, B.. Diálogos Afro-Latinos: o conflito armado colombiano do ponto de vista das comunidades negras. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SPOHR, M. ; LEMOS, R. ; BORTONE, E. ; GIL, V. ;GARRIDO, A. G.. II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964. 2023. (Congresso).</t>
+          <t>ARAUJO, M. P. N. ; CORREA, L. ; GOMES, I. ;MANGUEIRA, B.. História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -750,44 +747,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.; VILLELA, L. ; ANAISSI, V. P. . Engrenages do mundo - Modelos políticos e econômicos. 1. ed. Rio de Janeiro: Editora Eleva S/A, 2021. 536p .</t>
+          <t>ARAUJO, M. P. N. ; PIMENTEL, I. ; CORREA, L. ;MANGUEIRA, B.. Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.; Lys Villela ; ANAISSI, V. P. . Itinerários Formativos - Livro 1 - Relações Políticas. 1. ed. Rio de Janeiro: Editora Eleva S/A, 2021. 184p .</t>
+          <t>COSTA, C. R.; CAMPANHOLO, B. G. ; MANGUEIRA, B. ; CORREA, L. ; ARAUJO, M. P. N. . Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ;MANGUEIRA, B.; CORREA, L. . História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+          <t>COSTA, C. R.; SOARES, S. F. . Ditadura nunca mais! Mulheres e resistências contra a ditadura militar no Brasil. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -795,14 +792,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ; CACERES, L. S. ;MANGUEIRA, B.. Diálogos Afro-Latinos: o conflito armado colombiano do ponto de vista das comunidades negras. 2022. (Outro).</t>
+          <t>COSTA, C. R.; COUTINHO, A. B. P. S. ; QUINTINO, M. R. ; SOARES, S. F. . Entre escutas e escritas: diálogos entre a história oral e os estudos de gênero. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -810,119 +807,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ; CORREA, L. ; GOMES, I. ;MANGUEIRA, B.. História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>COSTA, C. R.; ARAUJO, M. P. N. ; SILVA, Izabel Priscila Pimentel da ; CORREA, L. ; CAMPANHOLO, B. G. ; GOMES, I. S. ; MANGUEIRA, B. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ; PIMENTEL, I. ; CORREA, L. ;MANGUEIRA, B.. Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil. 2021. (Outro).</t>
+          <t>MOREIRA DE SOUZA, CELIA DANIELE; ALMEIDA, M. B. ; LIMA, G. H. ; BARBOSA, V. M. A. ; PIORNEDO, N. C. A. . Clube do Livro "Mundo Árabe" - "Correio Noturno" de Hoda Barakat. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; CAMPANHOLO, B. G. ; MANGUEIRA, B. ; CORREA, L. ; ARAUJO, M. P. N. . Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
+          <t>MOREIRA DE SOUZA, CELIA DANIELE; ALMEIDA, M. B. . Textos disponíveis em língua portuguesa sobre História Árabe - Reflexões e Críticas. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Cleudiza Fernandes de Souza</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; SOARES, S. F. . Ditadura nunca mais! Mulheres e resistências contra a ditadura militar no Brasil. 2022. (Outro).</t>
+          <t>SOUZA, C. F.; MIRANDA, A. C. C. ; SILVA, D. O. ; SANTOS, R. . Simpósio Temático Escravidão e Liberdade nas Américas. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; COUTINHO, A. B. P. S. ; QUINTINO, M. R. ; SOARES, S. F. . Entre escutas e escritas: diálogos entre a história oral e os estudos de gênero. 2022. (Outro).</t>
+          <t>VENTURA, Elaine. Seminário Nacional "20 anos depois: A lei 10.639/03 e o Ensino de História". 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; ARAUJO, M. P. N. ; SILVA, Izabel Priscila Pimentel da ; CORREA, L. ; CAMPANHOLO, B. G. ; GOMES, I. S. ; MANGUEIRA, B. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Congresso).</t>
+          <t>GOEBEL, Felipe. I Encontro Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COSTA, Caroline R.. Reflexões sobre infância e subjetividade na Ditadura militar brasileira. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>GOEBEL, Felipe; EPAMINONDAS, N. R. ; RODRIGUES JUNIOR, P. O. . ST Moda, aparências e conflitos de gênero: disputas de história generificada. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Fernanda Gabrielly Terra Moura</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MOREIRA DE SOUZA, CELIA DANIELE; ALMEIDA, M. B. ; LIMA, G. H. ; BARBOSA, V. M. A. ; PIORNEDO, N. C. A. . Clube do Livro "Mundo Árabe" - "Correio Noturno" de Hoda Barakat. 2024. (Outro).</t>
+          <t>MOURA, FERNANDA GABRIELLY TERRA; MONTEIRO, EVELYN MORGAN ; PASSOS, P. S. . ?Webinário "Educadores são defensores! Acolher para lutar!". 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -930,225 +927,224 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MOREIRA DE SOUZA, CELIA DANIELE; ALMEIDA, M. B. . Textos disponíveis em língua portuguesa sobre História Árabe - Reflexões e Críticas. 2024. (Outro).</t>
+          <t>Gherman, M.;MELO MIZRAHI, GABRIEL. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cleudiza Fernandes de Souza</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SOUZA, C. F.; MIRANDA, A. C. C. ; SILVA, D. O. ; SANTOS, R. . Simpósio Temático Escravidão e Liberdade nas Américas. 2021. (Outro).</t>
+          <t>GHERMAN, MICHEL ;MIZRAHI, G. M.. História Política e Extrema-Direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Daniel Dutra Coelho Braga</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BRAGA, Daniel Dutra Coelho. Tollenare, Louis-François de. In: Cecília Helena de Salles Oliveira; João Paulo Pimenta. (Org.). Dicionário da Independência do Brasil: História, Memória e Historiografia. 1ed.São Paulo: EdUSP/Publicações BBM, 2022, v. , p. 963-964.</t>
+          <t>MIZRAHI, G. M.; HERZ, Monica ;Gherman, M.. Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Daniel Dutra Coelho Braga</t>
+          <t>Gabriel Pereira de Oliveira</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BRAGA, Daniel Dutra Coelho. Roussin, Albin-Reine. In: Cecília Helena de Salles Oliveira; João Paulo Pimenta. (Org.). Dicionário da Independência do Brasil: História, Memória e Historiografia. 1ed.São Paulo: EdUSP/Publicações BBM, 2022, v. 1, p. 864-865.</t>
+          <t>OLIVEIRA, G. P.; FUNES, E. A. . Coordenação do Simpósio Temático 19 - História Ambiental: sociedade e natureza nos sertões no o II Seminário Nacional de História Social dos Sertões/ IV Jornada de História dos Sertões.. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Denise da Silva de Oliveira</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OLIVEIRA, D. S.. A tecnologia entre o passado e o presente. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>FAYAL, R. ; FREIRE, R. ;VIANNA, G. S.. XXIII Conferência de diretores de Colégios de Defesa ibero Americanos. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Giovanna Zamith Cesário</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VENTURA, Elaine. Seminário Nacional "20 anos depois: A lei 10.639/03 e o Ensino de História". 2023. (Outro).</t>
+          <t>CESÁRIO, G. Z.. IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe. I Encontro Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ). 2023. (Congresso).</t>
+          <t>RIBEIRO, Guilherme L.; FREDERICO, M. C. V. ; ALMEIDA, B. C. . 13ª Semana de Ciências Sociais da PUC-Rio. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe; EPAMINONDAS, N. R. ; RODRIGUES JUNIOR, P. O. . ST Moda, aparências e conflitos de gênero: disputas de história generificada. 2022. (Outro).</t>
+          <t>ALMEIDA, B. C. ;RIBEIRO, Guilherme Leite.; FREDERICO, M. C. V. . Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe. Moda na perspectiva da História Social: panorama conceitual nos estudos históricos. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>RIBEIRO, Guilherme L.; ZULINI, J. . ST 20. Partidos políticos nacionais: um século de história no Brasil. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fernanda Gabrielly Terra Moura</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MOURA, FERNANDA GABRIELLY TERRA; MONTEIRO, EVELYN MORGAN ; PASSOS, P. S. . ?Webinário "Educadores são defensores! Acolher para lutar!". 2021. (Outro).</t>
+          <t>POLICARPO, F.;MAIA, G.; MOTTA, Y. J. P. . IV Seminário de Pesquisa sobre os Usos Terapêuticos da Maconha. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gherman, M.;MELO MIZRAHI, GABRIEL. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>MAIA, G.; CARNEIRO, S. ; DIAS, L. L. . As drogas na história: instituições, sujeitos, objetos e usos. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GHERMAN, MICHEL ;MIZRAHI, G. M.. História Política e Extrema-Direita. 2023. (Congresso).</t>
+          <t>MAIA, G.; DIAS, L. L. ; CARNEIRO, S. . As drogas na história: instituições, sujeitos, objetos e usos. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MIZRAHI, G. M.; HERZ, Monica ;Gherman, M.. Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Congresso).</t>
+          <t>PIRES, ISABELLE. Simpósio Temático Mundos do Trabalho: Trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gabriel Pereira de Oliveira</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>OLIVEIRA, G. P.; FUNES, E. A. . Coordenação do Simpósio Temático 19 - História Ambiental: sociedade e natureza nos sertões no o II Seminário Nacional de História Social dos Sertões/ IV Jornada de História dos Sertões.. 2021. (Outro).</t>
+          <t>PIRES, ISABELLE; SOUZA, Vitor Leandro de . Simpósio Temático Mundos do Trabalho: Trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FAYAL, R. ; FREIRE, R. ;VIANNA, G. S.. XXIII Conferência de diretores de Colégios de Defesa ibero Americanos. 2022. (Congresso).</t>
+          <t>PIRES, ISABELLE. ST Gênero e raça nos mundos do trabalho. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1156,59 +1152,59 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CESÁRIO, G. Z.. IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Outro).</t>
+          <t>PIRES, ISABELLE; MORAES, R. F. ; SOUZA, Vitor Leandro de . Simpósio - Mundos do Trabalho: trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.; FREDERICO, M. C. V. ; ALMEIDA, B. C. . 13ª Semana de Ciências Sociais da PUC-Rio. 2024. (Congresso).</t>
+          <t>PIRES, ISABELLE; SILVA, N.F. ; NASCIMENTO, L. G. ; PINHEIRO, I. S. ; SILVA, M.B.G.M. . IV Encontro Fluminense de Teoria e Historiografia da História. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALMEIDA, B. C. ;RIBEIRO, Guilherme Leite.; FREDERICO, M. C. V. . Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Congresso).</t>
+          <t>PIRES, ISABELLE; ALCÂNTARA, Patricia Costa de . Simpósio Mundos do Trabalho: luta por direitos entre Primeira República e o Estado Novo. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.; ZULINI, J. . ST 20. Partidos políticos nacionais: um século de história no Brasil. 2022. (Congresso).</t>
+          <t>DI LOURENÇO, J.; SABINO, C. . XXV Encontro de História UNIRIO/Cederj - Polo Miguel Pereira. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1216,47 +1212,44 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme Leite.. Frentes Parlamentares. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>DI LOURENÇO, J.; SABINO, C. . XXIV Encontro de História UNIRIO/Cederj - Polo Miguel Pereira. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. 2023; Tema:
-						O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. (Site).</t>
+          <t>DI LOURENÇO, J.; ALBUQUERQUE, G. ; ROSA, P. . História Ambiental: uma introdução. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Jefferson dos Santos Alves</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. 'Os anos JK' e 'Jango': o olhar cinematográfico de Silvio Tendler para o Brasil. 2023; Tema:
-						"Os anos JK" e "Jango": o olhar cinematográfico de Silvio Tendler para o Brasil. (Site).</t>
+          <t>ALVES, J. S.. Ciclo de conferências Centenário da Revista A Ordem. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Jerônimo Aguiar Duarte da Cruz</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1264,45 +1257,44 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. O que são frentes parlamentares?. 2022; Tema:
-						Frentes parlamentares. (Site).</t>
+          <t>ALVARENGA, F. M. ;CRUZ, Jerônimo Aguiar Duarte da. Simpósio Temático História agrária, história da propriedade e o rural em perspectiva: temporalidades, atores e lutas (séculos XVIII-XXI). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>POLICARPO, F.;MAIA, G.; MOTTA, Y. J. P. . IV Seminário de Pesquisa sobre os Usos Terapêuticos da Maconha. 2024. (Outro).</t>
+          <t>ARAUJO, M. P. N.;DA SILVA, LAYS CORRÊA. História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MAIA, G.; CARNEIRO, S. ; DIAS, L. L. . As drogas na história: instituições, sujeitos, objetos e usos. 2023. (Outro).</t>
+          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da; QUEIROZ, Andréa Cristina de Barros . Simpósio 08 - História e Memória das Ditaduras e  Redemocratizações na  América Latina. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1310,44 +1302,44 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MAIA, G.; DIAS, L. L. ; CARNEIRO, S. . As drogas na história: instituições, sujeitos, objetos e usos. 2022. (Outro).</t>
+          <t>SEIXLACK, ALESSANDRA GONZALEZ DE CARVALHO ; VALE CASTRO, FERNANDO LUIZ ;DA SILVA, LAYS CORRÊA. Ensino e Pesquisa de História da América no século XXI: desafios e possibilidades. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE. Simpósio Temático Mundos do Trabalho: Trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2023. (Outro).</t>
+          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da; QUEIROZ, Andréa Cristina de Barros . Simpósio 25 - História e Memória das Ditaduras e Redemocratizações na América Latina. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; SOUZA, Vitor Leandro de . Simpósio Temático Mundos do Trabalho: Trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2022. (Outro).</t>
+          <t>CORREA, L.. Mesa "Esquerdas, lutas políticas e resistências". 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1355,14 +1347,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE. ST Gênero e raça nos mundos do trabalho. 2021. (Outro).</t>
+          <t>CORREA, L.;ARAUJO, M. P. N.;GOMES, I. S.. História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1370,89 +1362,89 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; MORAES, R. F. ; SOUZA, Vitor Leandro de . Simpósio - Mundos do Trabalho: trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2021. (Outro).</t>
+          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da;ARAUJO, M. P. N.;GOMES, I. S.. Seminário Internacional ?45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil?. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; SILVA, N.F. ; NASCIMENTO, L. G. ; PINHEIRO, I. S. ; SILVA, M.B.G.M. . IV Encontro Fluminense de Teoria e Historiografia da História. 2021. (Outro).</t>
+          <t>CASTANHO, G. C. G. ;NEVES, L. C. S.. XIII Encontro Internacional do LATHIMM: A digitalização da medievalística brasileira (e além...). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; ALCÂNTARA, Patricia Costa de . Simpósio Mundos do Trabalho: luta por direitos entre Primeira República e o Estado Novo. 2021. (Outro).</t>
+          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DI LOURENÇO, J.; SABINO, C. . XXV Encontro de História UNIRIO/Cederj - Polo Miguel Pereira. 2024. (Outro).</t>
+          <t>FREITAS, Mariana Durães de ;NEVES, Leandro César S.; RODRIGUES, Daniela Aparecida ; PEREIRA SILVA, Pedro Henrique . Coordenação ST X EPHIS/UFMG: Antiguidade Tardia e Idade Média: Poder, Fé e Representações. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DI LOURENÇO, J.; SABINO, C. . XXIV Encontro de História UNIRIO/Cederj - Polo Miguel Pereira. 2023. (Outro).</t>
+          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . II Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DI LOURENÇO, J.; ALBUQUERQUE, G. ; ROSA, P. . História Ambiental: uma introdução. 2021. (Outro).</t>
+          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . III Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jefferson dos Santos Alves</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1460,44 +1452,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALVES, J. S.. Ciclo de conferências Centenário da Revista A Ordem. 2021. (Congresso).</t>
+          <t>CRUZ, Alfredo B. da C. ;NEVES, Leandro César S.; BERNARDO, Guilherme W. . Coordenação ST XVI Semana de História UFU: Uma periferia historiográfica? A Idade Média para além do Ocidente Medieval. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jerônimo Aguiar Duarte da Cruz</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ALVARENGA, F. M. ;CRUZ, Jerônimo Aguiar Duarte da. Simpósio Temático História agrária, história da propriedade e o rural em perspectiva: temporalidades, atores e lutas (séculos XVIII-XXI). 2022. (Congresso).</t>
+          <t>MINARDI, Carolina C. ; BARBOSA, Fábio Henrique R. ;NEVES, Leandro César S.; PEREIRA SILVA, Pedro Henrique . Coordenação ST IX EPHIS/UFMG: Cultura e Intelectualidade na Antiguidade Tardia e Idade Média. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N.;DA SILVA, LAYS CORRÊA. História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
+          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.; SILVA, S. A. N. . XIX Simpósio do Programa de Pós-Graduação em Ciência da Literatura. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1505,29 +1497,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da; QUEIROZ, Andréa Cristina de Barros . Simpósio 08 - História e Memória das Ditaduras e  Redemocratizações na  América Latina. 2022. (Congresso).</t>
+          <t>SABINO, C. L. M. ;NASCIMENTO, L. G.; MONTEIRO, D. P. . Jornada Acadêmica do curso de Licenciatura em História. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SEIXLACK, ALESSANDRA GONZALEZ DE CARVALHO ; VALE CASTRO, FERNANDO LUIZ ;DA SILVA, LAYS CORRÊA. Ensino e Pesquisa de História da América no século XXI: desafios e possibilidades. 2022. (Outro).</t>
+          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.; SOUZA, K. B. A. J. . XVIII Simpósio do Programa de Pós-graduação em Ciência da Literatura. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1535,14 +1527,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da; QUEIROZ, Andréa Cristina de Barros . Simpósio 25 - História e Memória das Ditaduras e Redemocratizações na América Latina. 2021. (Congresso).</t>
+          <t>NASCIMENTO, L. G.; PINHEIRO, I. S. ; BARBOSA, M. ; FREITAS, N. ; CESARIO, G. Z. ; ALENCAR, A. C. . IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Helena de Oliveira</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1550,14 +1542,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CORREA, L.. Mesa "Esquerdas, lutas políticas e resistências". 2021. (Outro).</t>
+          <t>OLIVEIRA, Letícia; RAMOS, S. . POTÊNCIAS NEGRAS DE CUIABÁ: ESTRATÉGIAS FEMININAS - PASSADO E PRESENTE. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Helena de Oliveira</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1565,14 +1557,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CORREA, L.;ARAUJO, M. P. N.;GOMES, I. S.. História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>RAMOS, S. ;OLIVEIRA, Letícia. Da experiência sensorial à educação patrimonial com arte: Cuiabá em experimentos e acessibilidade. 2021. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lays Correa da Silva</t>
+          <t>Letícia Helena de Oliveira</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1580,44 +1572,44 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da;ARAUJO, M. P. N.;GOMES, I. S.. Seminário Internacional ?45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil?. 2021. (Outro).</t>
+          <t>OLIVEIRA, Letícia; RAMOS, S. ; SILVA, Marcus Vinicius . "Pequena África" em Cuiabá: revisitando o comércio, as vivências e os saberes negros. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CASTANHO, G. C. G. ;NEVES, L. C. S.. XIII Encontro Internacional do LATHIMM: A digitalização da medievalística brasileira (e além...). 2023. (Congresso).</t>
+          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+          <t>SILVA, L. N. O.. I Jornada de Egressos Prof. Manolo Florentino. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Luís Ricardo Araujo da Costa</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1625,14 +1617,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FREITAS, Mariana Durães de ;NEVES, Leandro César S.; RODRIGUES, Daniela Aparecida ; PEREIRA SILVA, Pedro Henrique . Coordenação ST X EPHIS/UFMG: Antiguidade Tardia e Idade Média: Poder, Fé e Representações. 2022. (Outro).</t>
+          <t>COSTA, Luís. Festival Carioca de Fotografia Analógica. 2022. (Festival).</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1640,59 +1632,59 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . II Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+          <t>PORTO, Maria Beatriz G. B.; TEIXEIRA, E. A. . Virando o 7- Portal do Bicentenário. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Maíra Cristina Tomé Fonseca</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . III Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+          <t>TOMÉ, Maíra.; OLIVEIRA, P. H. F. D. . Coordenação do Simpósio Temático "História do Crime e da Violência: atores e instituições" - X Semana de História da UFTM. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CRUZ, Alfredo B. da C. ;NEVES, Leandro César S.; BERNARDO, Guilherme W. . Coordenação ST XVI Semana de História UFU: Uma periferia historiográfica? A Idade Média para além do Ocidente Medieval. 2021. (Outro).</t>
+          <t>SILVA, M. C. F.. Semana da Consciência Negra do Museu Histórico Nacional. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Leandro César Santana Neves</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MINARDI, Carolina C. ; BARBOSA, Fábio Henrique R. ;NEVES, Leandro César S.; PEREIRA SILVA, Pedro Henrique . Coordenação ST IX EPHIS/UFMG: Cultura e Intelectualidade na Antiguidade Tardia e Idade Média. 2021. (Outro).</t>
+          <t>SILVA, M. C. F.;AGUILAR, N.; SOARES, F. P. . II Seminário Internacional de Ensino e Pesquisa em História da África na Contemporaneidade. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Letícia Gomes do Nascimento</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1700,89 +1692,89 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.; SILVA, S. A. N. . XIX Simpósio do Programa de Pós-Graduação em Ciência da Literatura. 2022. (Congresso).</t>
+          <t>SILVA, M. C. F.;AGUILAR, N.. Simpósio temático Gênero e História das Mulheres no Continente Africano da III Jornada de História e Gênero - Feminismos e representatividade na história. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Letícia Gomes do Nascimento</t>
+          <t>Moisés Peixoto Soares</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SABINO, C. L. M. ;NASCIMENTO, L. G.; MONTEIRO, D. P. . Jornada Acadêmica do curso de Licenciatura em História. 2022. (Outro).</t>
+          <t>Jesus, Douglas Lima de ; PEREZ, E. C. ;PEIXOTO, Moisés.. Historiador e formador de historiadores. Trajetória docente e contribuição  historiográfica de Eduardo França Paiva. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Letícia Gomes do Nascimento</t>
+          <t>Moisés Peixoto Soares</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.; SOUZA, K. B. A. J. . XVIII Simpósio do Programa de Pós-graduação em Ciência da Literatura. 2021. (Congresso).</t>
+          <t>PEIXOTO, Moisés.; BARBUDA, D. . Coordenação de Simpósio Temático:Índios, africanos e mestiçados na Ibero-América: dinâmicas de mestiçagens, mobilidades e protagonismos (séc. XVI-XIX),. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Letícia Gomes do Nascimento</t>
+          <t>Mylena Pereira da Silva</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NASCIMENTO, L. G.; PINHEIRO, I. S. ; BARBOSA, M. ; FREITAS, N. ; CESARIO, G. Z. ; ALENCAR, A. C. . IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Congresso).</t>
+          <t>SILVA, M. P.. Seminário Discente da Pós-Graduação em História Moderna. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Letícia Gomes do Nascimento</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NASCIMENTO, L. G.. Introdução à leitura e produção textual, plágio e inteligência artificial. 2024. (Apresentação de Trabalho/Outra).</t>
+          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; SALES, G. P. S. ; SILVA, Amanda Guimarães . IV Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Letícia; RAMOS, S. . POTÊNCIAS NEGRAS DE CUIABÁ: ESTRATÉGIAS FEMININAS - PASSADO E PRESENTE. 2021. (Outro).</t>
+          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; MOREIRA, P. F. ; SALES, G. P. S. ; SILVA, Amanda Guimarães . III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1790,14 +1782,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>RAMOS, S. ;OLIVEIRA, Letícia. Da experiência sensorial à educação patrimonial com arte: Cuiabá em experimentos e acessibilidade. 2021. (Exposição).</t>
+          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; SALES, G. P. S. ; MOREIRA, P. F. . II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Paula Mello dos Santos</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1805,44 +1797,44 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Letícia; RAMOS, S. ; SILVA, Marcus Vinicius . "Pequena África" em Cuiabá: revisitando o comércio, as vivências e os saberes negros. 2021. (Outro).</t>
+          <t>SANTOS, P. M.; CARVALHO, E. F. ; BARBOSA, M. . Entre Reinos e Ultramares: redes sociais, trajetórias e fios narrativos nas monarquias modernas (séculos XVI-XIX). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Letícia. A contribuição da educação patrimonial dos espaços negros na luta antirracista. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>BRASIL, R. N. S.. Cinema na Praça. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
+          <t>BRASIL, R. N. S.; GOMES, M. M. . Papo com a realizadora - Pastor Cláudio. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1850,14 +1842,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. ?Generosidade da Terra, Ingratidão dos Homens?: Conservação da Natureza no Brasil Império. 2022. (Curso de curta duração ministrado/Extensão).</t>
+          <t>BRASIL, R. N. S.; ALMEIDA, R. G. ; PIMENTEL, I. I. . Roda de Conversa sobre masculinidade hegemônica. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1865,29 +1857,29 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SILVA, L. N. O.. I Jornada de Egressos Prof. Manolo Florentino. 2021. (Outro).</t>
+          <t>GROH, Thiago; CAIXETA, V. L. ; BATISTA, D. J. ; SILVA, M. P. . IX Semana de História e V Encontro do Mestrado Profissional em História (ProfHistoria): A história e as disputas de narrativas nos tempos de redes sociais". 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Luís Ricardo Araujo da Costa</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>COSTA, Luís. Festival Carioca de Fotografia Analógica. 2022. (Festival).</t>
+          <t>CLÍMACO,Thompson. Coordenação Mesa "Debates amplos da historiografia" na XII Semana de História da UNIFESP.. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Valéria Dorneles Fernandes</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1895,59 +1887,59 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PORTO, Maria Beatriz G. B.; TEIXEIRA, E. A. . Virando o 7- Portal do Bicentenário. 2022. (Outro).</t>
+          <t>DORNELES FERNANDES, VALERIA. V Escuela de Posgrados de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.; OLIVEIRA, P. H. F. D. . Coordenação do Simpósio Temático "História do Crime e da Violência: atores e instituições" - X Semana de História da UFTM. 2021. (Outro).</t>
+          <t>Costa Lorena da ; PEIXOTO, P. V. S. ; BORGES, A. P. ; LEMOS, Amanda ;MENDONÇA, Vanessa de; LESSA, F. ; BUSTAMANTE, Regina ; GAIA, D. V. ; ANDRADE, Marta M. . XXXIII CICLO DE DEBATES EM HISTÓRIA ANTIGA ? HISTÓRIA ANTIGA EM MOVIMENTO: 30 ANOS DO LHIA. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.. Semana da Consciência Negra do Museu Histórico Nacional. 2024. (Outro).</t>
+          <t>MENDONÇA, Vanessa de; ARCO VERDE, Isabel . Absorventes: o sangue nosso de cada dia. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.;AGUILAR, N.; SOARES, F. P. . II Seminário Internacional de Ensino e Pesquisa em História da África na Contemporaneidade. 2022. (Congresso).</t>
+          <t>LESSA, F. ; GAIA, Deivid ; BUSTAMANTE, Regina ; PAREDES, Gabriel ; MARTINS, Fabiana ; LISBOA, Victor ;SANTOS, V. M. R.. XXXI Ciclo de Debates em História Antiga ? Dor e Morte. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1955,385 +1947,37 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.;AGUILAR, N.. Simpósio temático Gênero e História das Mulheres no Continente Africano da III Jornada de História e Gênero - Feminismos e representatividade na história. 2022. (Outro).</t>
+          <t>Vicente Gil da Silva. IV Congresso Internacional da Adhilac-Brasil. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Moisés Peixoto Soares</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Jesus, Douglas Lima de ; PEREZ, E. C. ;PEIXOTO, Moisés.. Historiador e formador de historiadores. Trajetória docente e contribuição  historiográfica de Eduardo França Paiva. 2023. (Outro).</t>
+          <t>Vicente Gil da Silva. I Colóquio Internacional Estado, Poder e Sociedade. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Moisés Peixoto Soares</t>
+          <t>Vinícius Patrocínio Pereira Costa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PEIXOTO, Moisés.; BARBUDA, D. . Coordenação de Simpósio Temático:Índios, africanos e mestiçados na Ibero-América: dinâmicas de mestiçagens, mobilidades e protagonismos (séc. XVI-XIX),. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SILVA, M. P.. Seminário Discente da Pós-Graduação em História Moderna. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; SALES, G. P. S. ; SILVA, Amanda Guimarães . IV Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; MOREIRA, P. F. ; SALES, G. P. S. ; SILVA, Amanda Guimarães . III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; SALES, G. P. S. ; MOREIRA, P. F. . II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Paula Mello dos Santos</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>SANTOS, P. M.; CARVALHO, E. F. ; BARBOSA, M. . Entre Reinos e Ultramares: redes sociais, trajetórias e fios narrativos nas monarquias modernas (séculos XVI-XIX). 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>BRASIL, R. N. S.. Cinema na Praça. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>BRASIL, R. N. S.; GOMES, M. M. . Papo com a realizadora - Pastor Cláudio. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>BRASIL, R. N. S.; ALMEIDA, R. G. ; PIMENTEL, I. I. . Roda de Conversa sobre masculinidade hegemônica. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>GROH, Thiago; CAIXETA, V. L. ; BATISTA, D. J. ; SILVA, M. P. . IX Semana de História e V Encontro do Mestrado Profissional em História (ProfHistoria): A história e as disputas de narrativas nos tempos de redes sociais". 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Coordenação Mesa "Debates amplos da historiografia" na XII Semana de História da UNIFESP.. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Classe trabalhadora negra e historiografia no Brasil. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Palmares:  O povo negro pode dançar. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Volta Redonda Situada no Cenário Nacional: CSN, classe trabalhadora e racismo. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Valéria Dorneles Fernandes</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DORNELES FERNANDES, VALERIA. V Escuela de Posgrados de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Costa Lorena da ; PEIXOTO, P. V. S. ; BORGES, A. P. ; LEMOS, Amanda ;MENDONÇA, Vanessa de; LESSA, F. ; BUSTAMANTE, Regina ; GAIA, D. V. ; ANDRADE, Marta M. . XXXIII CICLO DE DEBATES EM HISTÓRIA ANTIGA ? HISTÓRIA ANTIGA EM MOVIMENTO: 30 ANOS DO LHIA. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>MENDONÇA, Vanessa de; ARCO VERDE, Isabel . Absorventes: o sangue nosso de cada dia. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>LESSA, F. ; GAIA, Deivid ; BUSTAMANTE, Regina ; PAREDES, Gabriel ; MARTINS, Fabiana ; LISBOA, Victor ;SANTOS, V. M. R.. XXXI Ciclo de Debates em História Antiga ? Dor e Morte. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>SOUZA, A. ; MACIEL, M. ; CLAUDINO, R. ;SANTOS, V. M. R.. Lançamento oficial da coletânea 'Estudos Clássicos: Desdobramentos' (Letraria Editora) - Parte 2. 2022.
-							(Programa de rádio ou TV/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>SOUZA, A. ; NASCIMENTO, J. ; CORDEIRO, J. ; ALMEIDA, M. ;SANTOS, V. M. R.. Línguas antigas: Sânscrito, Hebraico, Grego e Latim. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva. IV Congresso Internacional da Adhilac-Brasil. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva. I Colóquio Internacional Estado, Poder e Sociedade. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
           <t>COSTA, V. P. P.. 1ª Semana Acadêmica da UnDF. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>GETIRANA, Y.; VERAS, A. ; PIRES, I. ; CHRISTOVAO, J. ; FARIAS, L. . Podcast Vale Mais 27 - Trabalhadoras Domésticas Organizadas. 2022.
-							(Programa de rádio ou TV/Entrevista).</t>
         </is>
       </c>
     </row>
@@ -2348,7 +1992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C383"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2453,7 +2097,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amanda Dias de Oliveira</t>
+          <t>Ariane Carvalho da Cruz</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2461,14 +2105,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OLIVEIRA, A. D.. 4º Encontro internacional histórias e parcerias. 2023. (Outro).</t>
+          <t>Seminário Nacional 20 Anos depois - A Lei 10.639/2003 e o Ensino de História. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2476,14 +2120,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TAVARES, Ana Clara N.; PINHEIRO, Anna Marina . Simpósio Temático Mundos do trabalho e relações de gênero no Brasil e no exterior: Mulheres, LGBTQIA+ e masculinidades. 2023. (Outro).</t>
+          <t>32º Simpósio Nacional de História.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2491,14 +2136,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAVARES, Ana Clara N.; VERAS, A. ; CUNHA, V. . Simpósio Temático Mundos do trabalho: intersecções entre gênero, raça, classe e memória na História Social. 2023. (Outro).</t>
+          <t>32º Simpósio Nacional de História ? ANPUH Nacional: Democracia e direitos humanos: Desafios para uma história profissional.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2506,14 +2152,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SILVA, H. ;TAVARES, Ana Clara N.. Simpósio Temático Mundos do trabalho: experiências, conflitos de classe e as questões de raça e racismo nos séculos XIX e XX. 2023. (Outro).</t>
+          <t>II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2521,29 +2168,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TAVARES, Ana Clara N.; SALES, Layana ; MARTINS, F. . Simpósio Temático Mundos do trabalho: relações de gênero, associativismos e organização feminina. 2023. (Outro).</t>
+          <t>VII Simpósio Arquivos e Educação.Casa Acervo Game App.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;AZEVEDO, F. L. M.;SOARES, B. A.; CHAGAS, K. M. . 20ª Semana Nacional de Museus: O Poder dos Museus. 2022. (Outro).</t>
+          <t>VI Semana de História da UFRJ.Justiça de transição: CNV e demais experiências latino-americanas. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2551,14 +2199,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.; CHAGAS, K. M. ; GOMIDE, A. P. S. . Além dos estereótipos: manifestações artísticas asiáticas e suas influências ao redor do mundo. 2022. (Exposição).</t>
+          <t>Exposição de acervos: apresentar documentos, fomentar o pensamento. 2022. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2566,14 +2214,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; GONCALVES, A. A. O. ;AZEVEDO, F. L. M.;SOARES, B. A.; CHAGAS, K. M. . Hamikái upã hãhãw - Brotar da terra: a luta dos Pataxó pelo território de Gerú Tucunã. 2022. (Exposição).</t>
+          <t>Justiça Militar em questão.Justiça Militar em questão. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2581,14 +2229,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . História do Rádio no Brasil e sua presença social em Divinópolis, por meio da coleção de memória de Mayrink Pinto de Aguiar Jr.. 2022. (Exposição).</t>
+          <t>Seminário Internacional de Arquivos Pessoais: debates contemporâneos.A experiência do Escola no Acervo e os desafios da difusão e da educação patrimonial da FGV CPDOC em tempos pandêmicos. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2596,14 +2244,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;AZEVEDO, F. L. M.;SOARES, B. A.; CHAGAS, K. M. . As história em quadrinhos como parte relevante na indústria cultural: (re) significando o acervo do prof. Henrique Galvão, suas linguagens e sentidos (1950 a 1970). 2022. (Exposição).</t>
+          <t>Seminário Internacional de Arquivos Pessoais: debates contemporâneos. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2611,14 +2259,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . Numismática e a História: os planos econômicos do Brasil através das moedas e cédulas. 2022. (Exposição).</t>
+          <t>VI Simpósio Arquivos &amp; Educação Arquivos, Educação e Movimentos Sociais: acervos, memórias e vozes plurais.EDUCAÇÃO PATRIMONIAL DURANTE A PANDEMIA: A ESCOLA NO ACERVO.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2626,44 +2275,45 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . 16ª Primavera dos Museus. 2022. (Outro).</t>
+          <t>X Jornada Discente do Programa de Pós-Graduação em História, Política e Bens Culturais (PPHPBC).Militares e Justiça: as disputas políticas de militares no Superior Tribunal Militar (1964-1979). 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . Bionas e a História da Feira Livre do Bairro Esplanada em Divinópolis-MG. 2022. (Exposição).</t>
+          <t>2º Seminário Museu e Educação: educação museal e decolonialidade. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . 6ª Semana Nacional de Arquivos: #SomosArquivos. 2022. (Outro).</t>
+          <t>3.º Encontro Memória para Todos: Preservar e Partilhar a Memória.Projeto Difusão e Educação Patrimonial do acervo histórico da FGV CPDOC.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2671,62 +2321,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;VERTELO, A. C. O. T.;SOARES, B. A.;AZEVEDO, F. L. M.. 19ª Semana Nacional de Museus: O futuro dos museus: recuperar e reimaginar. 2021. (Outro).</t>
+          <t>31º Simpósio Nacional de História.Militares e Justiça: as disputas da caserna no Superior Tribunal Militar (1964-1979).
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.. 13ª Mostra Cinema e Direitos Humanos no CEMUD, UEMG - MG1 - Edição de segunda-feira, 15/04/2024. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>I Colóquio Internacional Estado, Poder e Sociedade. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; BARROS, J. V . 13ª Mostra Cinema e Direitos Humanos no CEMUD, UEMG - Programa Panorama Geral Divi, com Ana Paula Silva. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>32º Simpósio Nacional de História: Democracia e Direitos Humanos.Os contramonumentos de Doris Salcedo: Noviembre 6 y 7 (2002), Fragmentos (2018) e as políticas de memória e esquecimento do conflito armado colombiano.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; PEREIRA, W. S. ; AMARAL, D. V. O. . Diálogos arquivísticos: narrativa, esquecimento e resgate da memória Divinopolitana. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
+          <t>História Oral, Memória e Violência Política no Mundo Contemporâneo.Doris Salcedo e as políticas de memória no conflito armado colombiano. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ariane Carvalho da Cruz</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2734,246 +2383,244 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Seminário Nacional 20 Anos depois - A Lei 10.639/2003 e o Ensino de História. 2023. (Seminário).</t>
+          <t>VI Semana de História da UFRJ.Mesa de encerramento - Justiça de Transição: CNV e demais experiências latino-americanas. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
-						2023. (Simpósio).</t>
+          <t>42º Colóquio do Comitê Brasileiro de História da Arte.Arte como ação coletiva e construção de memória em três obras de Doris Salcedo. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História ? ANPUH Nacional: Democracia e direitos humanos: Desafios para uma história profissional.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
-						2023. (Simpósio).</t>
+          <t>IV Col·loqui Internacional sobre Violència Política al segle XX.A arte de Doris Salcedo nas disputas de memória na Colômbia: a relação entre suas obras e os esforços institucionais de resolução do conflito armado. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
-						2023. (Simpósio).</t>
+          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.O luto na obra de Doris Salcedo: velar os mortos do conflito armado colombiano.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VII Simpósio Arquivos e Educação.Casa Acervo Game App.
-						2023. (Simpósio).</t>
+          <t>IX EPHIS - Alcances da História: compreender e transformar.O corpo desaparecido: a temática da desaparição forçada na obra de Doris Salcedo.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VI Semana de História da UFRJ.Justiça de transição: CNV e demais experiências latino-americanas. 2023. (Seminário).</t>
+          <t>Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil.Mediação da Mesa Repressão e Violência Política. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Maria de Albuquerque Mitchell</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Exposição de acervos: apresentar documentos, fomentar o pensamento. 2022. (Oficina).</t>
+          <t>CEM DIAS DO GOVERNO BIDEN E AS RELAÇÕES INTERNACIONAIS.Uma nova Guerra à Pobreza? Um paralelo entre os governos Biden e Johnson. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carlos Romário da Silva de Matos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Justiça Militar em questão.Justiça Militar em questão. 2022. (Outra).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural G.O modo de operação dos Prêmios Camões de Literatura e Miguel de Cervantes.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Seminário Internacional de Arquivos Pessoais: debates contemporâneos.A experiência do Escola no Acervo e os desafios da difusão e da educação patrimonial da FGV CPDOC em tempos pandêmicos. 2022. (Seminário).</t>
+          <t>A Questão Palestina: conjuntura atual e o processo contínuo da Nakba.A Questão Palestina: conjuntura atual e o processo contínuo da Nakba. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Seminário Internacional de Arquivos Pessoais: debates contemporâneos. 2022. (Seminário).</t>
+          <t>Aula Aberta: A questão Palestina: o processo da Nakba e a violência em Gaza.Aula Aberta: A questão Palestina: o processo da Nakba e a violência em Gaza. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VI Simpósio Arquivos &amp; Educação Arquivos, Educação e Movimentos Sociais: acervos, memórias e vozes plurais.EDUCAÇÃO PATRIMONIAL DURANTE A PANDEMIA: A ESCOLA NO ACERVO.
-						2022. (Simpósio).</t>
+          <t>Fazendo Gênero 13 contra o fim do mundo: anti-colonialismo, anti-fascismo e justiça climática. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>X Jornada Discente do Programa de Pós-Graduação em História, Política e Bens Culturais (PPHPBC).Militares e Justiça: as disputas políticas de militares no Superior Tribunal Militar (1964-1979). 2022. (Seminário).</t>
+          <t>Fazendo Gênero 13 contra o fim do mundo: anti-colonialismo, anti-fascismo e justiça climática.O gênero no debate literário, intelectual e público: lutas por independência, nacionalismos e feminismos na história contemporânea da Palestina. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2º Seminário Museu e Educação: educação museal e decolonialidade. 2021. (Seminário).</t>
+          <t>Formação Pública "A questão Palestina-Israel nos séculos XX-XXI".A questão Palestina-Israel nos séculos XX-XXI. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.º Encontro Memória para Todos: Preservar e Partilhar a Memória.Projeto Difusão e Educação Patrimonial do acervo histórico da FGV CPDOC.
-						2021. (Encontro).</t>
+          <t>III Curso de Formação Feminista: Conversa com as pretas, LGBTs e mulheres desterritorializadas.Mulheres, a Questão Palestina e o colonialismo. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31º Simpósio Nacional de História.Militares e Justiça: as disputas da caserna no Superior Tribunal Militar (1964-1979).
-						2021. (Simpósio).</t>
+          <t>XII Encontro Estadual de História, que tem por tema A formação em História: profissão, tendências historiográficas e projetos de futuro.Discutindo os termos do nacionalismo e da modernidade no Oriente Médio na virada do século XX: a Nahda, identidade e formulações de resistência.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>I Colóquio Internacional Estado, Poder e Sociedade. 2021. (Outra).</t>
+          <t>XII Encontro Estadual de História, que tem por tema A formação em História: profissão, tendências historiográficas e projetos de futuro.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2981,14 +2628,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SPOHR, M. ; LEMOS, R. ; BORTONE, E. ; GIL, V. ;GARRIDO, A. G.. II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964. 2023. (Congresso).</t>
+          <t>V Seminário Internacional História do Tempo Presente. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2996,167 +2643,167 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História: Democracia e Direitos Humanos.Os contramonumentos de Doris Salcedo: Noviembre 6 y 7 (2002), Fragmentos (2018) e as políticas de memória e esquecimento do conflito armado colombiano.
-						2023. (Simpósio).</t>
+          <t>V Seminário Internacional História do Tempo Presente.Pensando a Nakba, a catástrofe palestina: temporalidades, luta política, memória e a história contemporânea da Palestina. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>História Oral, Memória e Violência Política no Mundo Contemporâneo.Doris Salcedo e as políticas de memória no conflito armado colombiano. 2023. (Seminário).</t>
+          <t>A Questão Palestina e o combate ao sionismo nas universidades. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VI Semana de História da UFRJ.Mesa de encerramento - Justiça de Transição: CNV e demais experiências latino-americanas. 2023. (Outra).</t>
+          <t>11a Semana Acadêmica de História - Mídias e Representações.Minicurso - Conceitos para uma história da Palestina contemporânea: metodologias, epistemologias e historiografia. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>42º Colóquio do Comitê Brasileiro de História da Arte.Arte como ação coletiva e construção de memória em três obras de Doris Salcedo. 2022. (Outra).</t>
+          <t>II Seminário Nacional.Espacialidades, experiências e resistências palestinas através da literatura de Sahar Khalifeh e Liana Badr. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Carolina Ferreira de Figueiredo</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IV Col·loqui Internacional sobre Violència Política al segle XX.A arte de Doris Salcedo nas disputas de memória na Colômbia: a relação entre suas obras e os esforços institucionais de resolução do conflito armado. 2022. (Outra).</t>
+          <t>I Seminário Internacional da CEÁSIA-UFPE: Nova ordem, velhos consensos: O sul global em perspectiva.Contribuições da historiografia palestina para o Sul Global: história, memória e luta política. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.O luto na obra de Doris Salcedo: velar os mortos do conflito armado colombiano.
-						2021. (Simpósio).</t>
+          <t>I Simpósio dos Estudantes do PPHPBC.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IX EPHIS - Alcances da História: compreender e transformar.O corpo desaparecido: a temática da desaparição forçada na obra de Doris Salcedo.
-						2021. (Encontro).</t>
+          <t>X Oficina Novos olhares sobre o arquivo: visualidade, difusão e educação nos arquivos de mulheres do CPDOC. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil.Mediação da Mesa Repressão e Violência Política. 2021. (Seminário).</t>
+          <t>Cartografias das Culturas: Encontro Latino mericano de Memórias, Territórios e Identidades.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Cleudiza Fernandes de Souza</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ;MANGUEIRA, B.; CORREA, L. . História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+          <t>31º Simpósio Nacional de História.Trajetos visíveis, histórias possíveis: Homens de cor ante a significados de crime, racialização, trabalho e sentidos de virilidade (Oliveira, Minas Gerais, imediato pós-abolição).
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Cleudiza Fernandes de Souza</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ; CACERES, L. S. ;MANGUEIRA, B.. Diálogos Afro-Latinos: o conflito armado colombiano do ponto de vista das comunidades negras. 2022. (Outro).</t>
+          <t>IX Encontro de Pesquisa em História da UFMG. Para além do direito de ser livre: crime, lutas por direitos e relações de trabalho no pós-abolição. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Diego de Moraes Campos</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ; CORREA, L. ; GOMES, I. ;MANGUEIRA, B.. História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>: I Congresso Internacional de Humanidades Digitais, cultura e Educação &amp; II Simpósio Nacional em Mídias, Tecnologias e História rea. O ?COMPLEXO DE ÉPICO? NO ?JARDIM DA POLÍTICA?: A CRÍTICA SATÍRICA DO ?CANTOR ENGAJADO TOM ZÉ? À ARTE ENGAJADA BRASILEIRA. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Diego de Moraes Campos</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3164,14 +2811,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N. ; PIMENTEL, I. ; CORREA, L. ;MANGUEIRA, B.. Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil. 2021. (Outro).</t>
+          <t>Semana Pedagógica. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Barbara Maria de Albuquerque Mitchell</t>
+          <t>Diego de Moraes Campos</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3179,197 +2826,197 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CEM DIAS DO GOVERNO BIDEN E AS RELAÇÕES INTERNACIONAIS.Uma nova Guerra à Pobreza? Um paralelo entre os governos Biden e Johnson. 2021. (Outra).</t>
+          <t>XVI  Semana de História ? História do Tempo Presente:  disputas pelo passado no Brasil contemporâneo.A canção crítica  brasileira: da Tropicália ao BRock (1968-1988).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Carlos Romário da Silva de Matos</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural G.O modo de operação dos Prêmios Camões de Literatura e Miguel de Cervantes.
-						2021. (Encontro).</t>
+          <t>32 Simpósio Nacional de História. Democracia e Direitos Humanos: Desafios Para Uma História Profissional.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A Questão Palestina: conjuntura atual e o processo contínuo da Nakba.A Questão Palestina: conjuntura atual e o processo contínuo da Nakba. 2024. (Outra).</t>
+          <t>História da Educação e Ensino de História.Encontro Integrado História da Educação e Ensino de História.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aula Aberta: A questão Palestina: o processo da Nakba e a violência em Gaza.Aula Aberta: A questão Palestina: o processo da Nakba e a violência em Gaza. 2024. (Outra).</t>
+          <t>1822-2022: 200 anos de História e Historiografia. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fazendo Gênero 13 contra o fim do mundo: anti-colonialismo, anti-fascismo e justiça climática. 2024. (Seminário).</t>
+          <t>Religião, Supremacia racial e os desafios contemporâneos da diversidade. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fazendo Gênero 13 contra o fim do mundo: anti-colonialismo, anti-fascismo e justiça climática.O gênero no debate literário, intelectual e público: lutas por independência, nacionalismos e feminismos na história contemporânea da Palestina. 2024. (Seminário).</t>
+          <t>Religiões afro brasileiras e suas representações nos jornais. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Formação Pública "A questão Palestina-Israel nos séculos XX-XXI".A questão Palestina-Israel nos séculos XX-XXI. 2024. (Outra).</t>
+          <t>Diversidade Religiosa e História. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>III Curso de Formação Feminista: Conversa com as pretas, LGBTs e mulheres desterritorializadas.Mulheres, a Questão Palestina e o colonialismo. 2024. (Outra).</t>
+          <t>18o Colóquio de Moda - ABEPEM. Conflitos de moda e conflitos sobre a moda na Paris das décadas de 1770 e 1780. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>XII Encontro Estadual de História, que tem por tema A formação em História: profissão, tendências historiográficas e projetos de futuro.Discutindo os termos do nacionalismo e da modernidade no Oriente Médio na virada do século XX: a Nahda, identidade e formulações de resistência.
-						2024. (Encontro).</t>
+          <t>Encontro Interno do Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ).Os conflitos de sexo e gênero no campo da moda parisiense (1770-1790). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>XII Encontro Estadual de História, que tem por tema A formação em História: profissão, tendências historiográficas e projetos de futuro.
-						2024. (Encontro).</t>
+          <t>X Encontro de Pesquisa em História - UFMG. O sexo e o gênero do campo da moda em Paris: as marchandes de modes e seu apagamento. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>V Seminário Internacional História do Tempo Presente. 2023. (Seminário).</t>
+          <t>Ciclo de Debates Grupo de pesquisa História Intelectual: narrativas, práticas e circulação de ideias.Gênero, sexo e moda como categorias analíticas da ação social feminina na Paris da década de 1780. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>V Seminário Internacional História do Tempo Presente.Pensando a Nakba, a catástrofe palestina: temporalidades, luta política, memória e a história contemporânea da Palestina. 2023. (Seminário).</t>
+          <t>I Encontro dos GTs do Colóquio de Moda da ABEPEM.À l'Orient: fantasia e idealização oriental na Paris de 1780. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A Questão Palestina e o combate ao sionismo nas universidades. 2022. (Outra).</t>
+          <t>III Encontro de Pesquisa em Teoria da História e História da Historiografia.Rumores em Paris na Marcha das Mulheres sobre Versalhes: narrativas e factualidades. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3377,14 +3024,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11a Semana Acadêmica de História - Mídias e Representações.Minicurso - Conceitos para uma história da Palestina contemporânea: metodologias, epistemologias e historiografia. 2021. (Outra).</t>
+          <t>II Seminário Mulheres e a Escrita da História.- Mulheres trabalhadoras no eclodir da Revolução Francesa: questionamentos das noções de esfera pública e esfera privada. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3392,45 +3039,45 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>II Seminário Nacional.Espacialidades, experiências e resistências palestinas através da literatura de Sahar Khalifeh e Liana Badr. 2021. (Seminário).</t>
+          <t>XV Semana de História Política. Comerciantes de modas: as representações das marchandes de modes parisienses, 1776-1780. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Carolina Ferreira de Figueiredo</t>
+          <t>Fernanda Bana Arouca</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>I Seminário Internacional da CEÁSIA-UFPE: Nova ordem, velhos consensos: O sul global em perspectiva.Contribuições da historiografia palestina para o Sul Global: história, memória e luta política. 2021. (Seminário).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Novas Perspectivas sobre a História Militar e da Guerra: Sujeitos e Instituições.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gabriel Felipe Oliveira de Mello</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>I Simpósio dos Estudantes do PPHPBC.
-						2024. (Simpósio).</t>
+          <t>1822 - 2022: A Escrita do  Futuro. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3438,30 +3085,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>X Oficina Novos olhares sobre o arquivo: visualidade, difusão e educação nos arquivos de mulheres do CPDOC. 2024. (Oficina).</t>
+          <t>48º Encontro Anual da ANPOCS. Sessão Especial 06 - Violência política, respostas sociais e efeitos do conflito Israel-Palestina para o Brasil. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cartografias das Culturas: Encontro Latino mericano de Memórias, Territórios e Identidades.
-						2023. (Encontro).</t>
+          <t>Usos Políticos do Holocausto e do Genocídio. Instrumentalização do holocausto e do antissemitismo no Brasil. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3469,14 +3115,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; CAMPANHOLO, B. G. ; MANGUEIRA, B. ; CORREA, L. ; ARAUJO, M. P. N. . Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
+          <t>História Política e Extrema-Direita. Comunidade de Concretude em tempos de pós-fascismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3484,44 +3130,45 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; SOARES, S. F. . Ditadura nunca mais! Mulheres e resistências contra a ditadura militar no Brasil. 2022. (Outro).</t>
+          <t>Genocídios e Práticas Genocidárias Contemporâneas.Genocídio Indígena e Ecocídio.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gabriel Melo Mizrahi</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; COUTINHO, A. B. P. S. ; QUINTINO, M. R. ; SOARES, S. F. . Entre escutas e escritas: diálogos entre a história oral e os estudos de gênero. 2022. (Outro).</t>
+          <t>Israel Imaginária na Diplomacia Brasileira de Bolsonaro.Bolsonarismo e o Judeu Imaginário. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; ARAUJO, M. P. N. ; SILVA, Izabel Priscila Pimentel da ; CORREA, L. ; CAMPANHOLO, B. G. ; GOMES, I. S. ; MANGUEIRA, B. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Congresso).</t>
+          <t>57th International Congress of americanists. Imograntes Bolivianos  em tecelagens: vulnerabilidade e trabalho analogo a escravidão. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3529,75 +3176,74 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COSTA, Caroline R.. Reflexões sobre infância e subjetividade na Ditadura militar brasileira. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>Curso de artilharia antiaérea para oficiais.Metodologia de pesquisa para assuntos militares. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MOREIRA DE SOUZA, CELIA DANIELE; ALMEIDA, M. B. ; LIMA, G. H. ; BARBOSA, V. M. A. ; PIORNEDO, N. C. A. . Clube do Livro "Mundo Árabe" - "Correio Noturno" de Hoda Barakat. 2024. (Outro).</t>
+          <t>III Curso Especial de inteligencia aplicada ao meio empresarial.Crime organizado e redes criminiais. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MOREIRA DE SOUZA, CELIA DANIELE; ALMEIDA, M. B. . Textos disponíveis em língua portuguesa sobre História Árabe - Reflexões e Críticas. 2024. (Outro).</t>
+          <t>VI Foro Internacional ?Rusia e Iberoamérica en el mundo turbulento: historia y contemporaneidad?. Las nuevas relaciones cívico-militares en Brasil: Crisis, Democracia y Política (2019-2022). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cleudiza Fernandes de Souza</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31º Simpósio Nacional de História.Trajetos visíveis, histórias possíveis: Homens de cor ante a significados de crime, racialização, trabalho e sentidos de virilidade (Oliveira, Minas Gerais, imediato pós-abolição).
-						2021. (Simpósio).</t>
+          <t>VI Foro Internacional ?Rusia e Iberoamérica en el mundo turbulento: historia y contemporaneidad?. Las nuevas relaciones cívico-militares en Brasil: Crisis, Democracia y Política (2019-2022). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cleudiza Fernandes de Souza</t>
+          <t>Gilberto de Souza Vianna</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>IX Encontro de Pesquisa em História da UFMG. Para além do direito de ser livre: crime, lutas por direitos e relações de trabalho no pós-abolição. 2021. (Congresso).</t>
+          <t>XI Foro de Debates :Povos e Culturas nas Americas. America Latina Pensamento Militar. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cleudiza Fernandes de Souza</t>
+          <t>Giovanna Zamith Cesário</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3605,44 +3251,46 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOUZA, C. F.; MIRANDA, A. C. C. ; SILVA, D. O. ; SANTOS, R. . Simpósio Temático Escravidão e Liberdade nas Américas. 2021. (Outro).</t>
+          <t>Colóquio Teatro e Sociedade."Controvérsias em torno do papel do ensaiador de teatro no Brasil dos séculos XIX-XX".
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Daniel Dutra Coelho Braga</t>
+          <t>Giovanna Zamith Cesário</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BRAGA, Daniel Dutra Coelho. Tollenare, Louis-François de. In: Cecília Helena de Salles Oliveira; João Paulo Pimenta. (Org.). Dicionário da Independência do Brasil: História, Memória e Historiografia. 1ed.São Paulo: EdUSP/Publicações BBM, 2022, v. , p. 963-964.</t>
+          <t>Conversas Sobre Teatro e Sociedade. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Daniel Dutra Coelho Braga</t>
+          <t>Giovanna Zamith Cesário</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BRAGA, Daniel Dutra Coelho. Roussin, Albin-Reine. In: Cecília Helena de Salles Oliveira; João Paulo Pimenta. (Org.). Dicionário da Independência do Brasil: História, Memória e Historiografia. 1ed.São Paulo: EdUSP/Publicações BBM, 2022, v. 1, p. 864-865.</t>
+          <t>IX Encontro de Pesquisa em História.Aymond, quem é Aymond? A história do garganta de ouro: o artista transformista argentino e seu impacto no Teatro Brasileiro"..
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Denise da Silva de Oliveira</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3650,15 +3298,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>OLIVEIRA, D. S.. A tecnologia entre o passado e o presente. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>13ª Semana de Ciências Sociais da PUC-Rio. GT Movimentos sociais e lutas por direitos e cidadania. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Diego de Moraes Campos</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3666,45 +3313,45 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>: I Congresso Internacional de Humanidades Digitais, cultura e Educação &amp; II Simpósio Nacional em Mídias, Tecnologias e História rea. O ?COMPLEXO DE ÉPICO? NO ?JARDIM DA POLÍTICA?: A CRÍTICA SATÍRICA DO ?CANTOR ENGAJADO TOM ZÉ? À ARTE ENGAJADA BRASILEIRA. 2023. (Congresso).</t>
+          <t>Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013.Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Diego de Moraes Campos</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Semana Pedagógica. 2021. (Outra).</t>
+          <t>I Semana Canábica do Núcleo de Estudos Interdisciplinares em Cannabis - NEICANN/UNESP-Botucatu) g.História da maconha e sua proibição no Brasil. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Diego de Moraes Campos</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XVI  Semana de História ? História do Tempo Presente:  disputas pelo passado no Brasil contemporâneo.A canção crítica  brasileira: da Tropicália ao BRock (1968-1988).
-						2021. (Encontro).</t>
+          <t>32º Simpósio Nacional de História.A proibição da cannabis no Brasil: a emergência da criminalização do ?pito do pango? (RJ) e da ?diamba? (MA).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3712,15 +3359,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>32 Simpósio Nacional de História. Democracia e Direitos Humanos: Desafios Para Uma História Profissional.
-						2023. (Simpósio).</t>
+          <t>Expo Cannabis Brasil. Cannabis, Literatura e Quadrinhos. 2023. (Feira).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3728,135 +3374,136 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>História da Educação e Ensino de História.Encontro Integrado História da Educação e Ensino de História.
-						2023. (Encontro).</t>
+          <t>I Seminário sobre Maconha no Brasil Contemporâneo: Reflexões, desafios e possibilidades para além da Cannabis Medicinal.Comunicação, História e Cultura Canábica no Brasil. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1822-2022: 200 anos de História e Historiografia. 2022. (Congresso).</t>
+          <t>IX Congresso Internacional da ABRAMD - A ética na pluralidade dos saberes e dos fazeres sobre drogas. Cannabis Monitor e Maconhômetro: um projeto de pesquisa e comunicação antiproibicionista. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Religião, Supremacia racial e os desafios contemporâneos da diversidade. 2022. (Outra).</t>
+          <t>IX Congresso Internacional da ABRAMD - A ética na pluralidade dos saberes e dos fazeres sobre drogas. Contribuições para a Educação sobre drogas: ?Ciência Canábica? para o EJA Ensino Médio. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Religiões afro brasileiras e suas representações nos jornais. 2022. (Outra).</t>
+          <t>XIV RAM - Reunião de Antropologia do Mercosul. A proibição da maconha no Brasil: a emergência da criminalização do pango e da diamba no século XIX. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Diversidade Religiosa e História. 2021. (Outra).</t>
+          <t>I Congresso Brasileiro Sobre Psicodélicos: Clínica, Ciência e Política. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VENTURA, Elaine. Seminário Nacional "20 anos depois: A lei 10.639/03 e o Ensino de História". 2023. (Outro).</t>
+          <t>III Encontro ABRAMD Educação Rio - II Jornada Educação e Drogas do GPED/UERJ.Notícias sobre Maconha: o Podcast como recurso educativo.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>18o Colóquio de Moda - ABEPEM. Conflitos de moda e conflitos sobre a moda na Paris das décadas de 1770 e 1780. 2023. (Congresso).</t>
+          <t>III Seminário Internacional Cannabis Medicinal: Um Olhar para o FutFuturo. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Encontro Interno do Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ).Os conflitos de sexo e gênero no campo da moda parisiense (1770-1790). 2023. (Seminário).</t>
+          <t>X Encontro de Pesquisa em História da UFMG ? ?Tempo, Memória e Reminiscência: o (re)fazer histórico e suas perspectivas?.O ?DUQUE DA MACONHA? E AS REPRESENTAÇÕES DA CANNABIS NA IMPRENSA: UMA HISTÓRIA DO ESTIGMA SOCIAL DA PLANTA E DE SEUS USOS POLÍTICOS (1950-1955).
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X Encontro de Pesquisa em História - UFMG. O sexo e o gênero do campo da moda em Paris: as marchandes de modes e seu apagamento. 2022. (Congresso).</t>
+          <t>10º Seminário Interdisciplinar em Sociologia e Direito.O ?Duque da Maconha? e as representações da cannabis na imprensa carioca em contextos políticos entre 1945-1955. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3864,14 +3511,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ciclo de Debates Grupo de pesquisa História Intelectual: narrativas, práticas e circulação de ideias.Gênero, sexo e moda como categorias analíticas da ação social feminina na Paris da década de 1780. 2021. (Seminário).</t>
+          <t>8º Congresso Internacional da ABRAMD - Por uma política de drogas democráticas, inclusiva e diversa. Cannabis Monitor e Maconhômetro: ferramentas de pesquisa e ativismo antiproibicionista. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Gustavo Junqueira Costa Maia</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3879,135 +3526,140 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>I Encontro dos GTs do Colóquio de Moda da ABEPEM.À l'Orient: fantasia e idealização oriental na Paris de 1780. 2021. (Seminário).</t>
+          <t>I Jornada APCESP de Conhecimento em Cannabis.História e proibição da cannabis no Brasil.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Ingrid Gomes Ferreira</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>III Encontro de Pesquisa em Teoria da História e História da Historiografia.Rumores em Paris na Marcha das Mulheres sobre Versalhes: narrativas e factualidades. 2021. (Seminário).</t>
+          <t>15º Encontro Regional Sudeste de História Oral: Memória Corpo Mundo.Ação comunitária no combate à COVID-19 na favela da Rocinha: história oral como metodologia de pesquisa.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Ingrid Gomes Ferreira</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>II Seminário Mulheres e a Escrita da História.- Mulheres trabalhadoras no eclodir da Revolução Francesa: questionamentos das noções de esfera pública e esfera privada. 2021. (Seminário).</t>
+          <t>20º Encontro de História da ANPUH-Rio. "1822/2022: 200 anos de História e Historiografia".Movimentos sociais e o território urbano: a luta anti-remocionista da Vila Autódromo.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Ingrid Gomes Ferreira</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>XV Semana de História Política. Comerciantes de modas: as representações das marchandes de modes parisienses, 1776-1780. 2021. (Congresso).</t>
+          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.Vozes da resistência: história oral como metodologia para o estudo de um movimento social urbano.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe. I Encontro Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ). 2023. (Congresso).</t>
+          <t>VII Encontro Estadual da ANPUH - PI.Repressão e mundos do trabalho: o caso da greve da fábrica de tecidos Deodoro, Rio de Janeiro (1935).
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe; EPAMINONDAS, N. R. ; RODRIGUES JUNIOR, P. O. . ST Moda, aparências e conflitos de gênero: disputas de história generificada. 2022. (Outro).</t>
+          <t>Encontro Acadêmico do Polo UAB/Cederj Miguel Pereira.Introdução à leitura e escrita acadêmica.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe. Moda na perspectiva da História Social: panorama conceitual nos estudos históricos. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>X Seminário de História Ambiental - Meio Ambiente, História e Ensino. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fernanda Bana Arouca</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Novas Perspectivas sobre a História Militar e da Guerra: Sujeitos e Instituições.
-						2023. (Simpósio).</t>
+          <t>Desenho Didático para o Ensino Online. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Fernanda Gabrielly Terra Moura</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MOURA, FERNANDA GABRIELLY TERRA; MONTEIRO, EVELYN MORGAN ; PASSOS, P. S. . ?Webinário "Educadores são defensores! Acolher para lutar!". 2021. (Outro).</t>
+          <t>Educação Ambiental. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Gabriel Felipe Oliveira de Mello</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4015,75 +3667,75 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1822 - 2022: A Escrita do  Futuro. 2022. (Seminário).</t>
+          <t>I Encontro de Alimentação e Cultura na América Latina.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>48º Encontro Anual da ANPOCS. Sessão Especial 06 - Violência política, respostas sociais e efeitos do conflito Israel-Palestina para o Brasil. 2024. (Congresso).</t>
+          <t>O Uso de Aplicativos Web na Construção de Materiais Educacionais. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Usos Políticos do Holocausto e do Genocídio. Instrumentalização do holocausto e do antissemitismo no Brasil. 2024. (Congresso).</t>
+          <t>Sustentabilidade Ambiental na Comunidade Escolar. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>História Política e Extrema-Direita. Comunidade de Concretude em tempos de pós-fascismo. 2023. (Congresso).</t>
+          <t>V Escuela de Posgrado de la Sociedad Latinoamericana y Caribeña de Historia Ambiental - SOLCHA.'Serão as frutas que transformarão o mundo': o vegetarianismo no Brasil e a Sociedade Vegetariana Brasileira no início do século XX. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Genocídios e Práticas Genocidárias Contemporâneas.Genocídio Indígena e Ecocídio.
-						2022. (Encontro).</t>
+          <t>Colóquio Devir-Animal, Perspectivas indígenas e a Descolonização dos animais. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4091,44 +3743,45 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Israel Imaginária na Diplomacia Brasileira de Bolsonaro.Bolsonarismo e o Judeu Imaginário. 2021. (Seminário).</t>
+          <t>Geography, Geographers and Historians: Territory and Nature in Latin America - Environmental History Week. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Gherman, M.;MELO MIZRAHI, GABRIEL. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GHERMAN, MICHEL ;MIZRAHI, G. M.. História Política e Extrema-Direita. 2023. (Congresso).</t>
+          <t>I Webinário Agroecológico: Movimento, Ciência e Prática. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4136,14 +3789,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MIZRAHI, G. M.; HERZ, Monica ;Gherman, M.. Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Congresso).</t>
+          <t>Meio Ambiente para Ensinar História. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Gabriel Pereira de Oliveira</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4151,119 +3804,122 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>OLIVEIRA, G. P.; FUNES, E. A. . Coordenação do Simpósio Temático 19 - História Ambiental: sociedade e natureza nos sertões no o II Seminário Nacional de História Social dos Sertões/ IV Jornada de História dos Sertões.. 2021. (Outro).</t>
+          <t>X Simposio Latinoamericano y Caribeño de Historia Ambiental - SOLCHA.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Jefferson dos Santos Alves</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>57th International Congress of americanists. Imograntes Bolivianos  em tecelagens: vulnerabilidade e trabalho analogo a escravidão. 2023. (Congresso).</t>
+          <t>I Jornada de Egressos Professor Manolo Florentino (PPGHIS/UFRJ).O papel político da prática científica jesuítica em Portugal: uma análise a partir da supressão (1759).
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>João Fernando Barreto de Brito</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Curso de artilharia antiaérea para oficiais.Metodologia de pesquisa para assuntos militares. 2023. (Seminário).</t>
+          <t>II Seminário Nacional de História Social dos Sertões.Os Quebra-quilos no Sertão do Seridó: reconstruindo a sedição anti-métrica na Vila do Príncipe através das páginas de um processo-crime (1874-1875). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Júlio Dória</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>III Curso Especial de inteligencia aplicada ao meio empresarial.Crime organizado e redes criminiais. 2023. (Seminário).</t>
+          <t>23 International Congress of Social History. The Black and Mestizo's Peasant Community of Rio de Janeiro's Hinterland. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>VI Foro Internacional ?Rusia e Iberoamérica en el mundo turbulento: historia y contemporaneidad?. Las nuevas relaciones cívico-militares en Brasil: Crisis, Democracia y Política (2019-2022). 2023. (Congresso).</t>
+          <t>Perspectivas pós-coloniais e decoloniais no ensino da História e de Relações Internacionais.A de(s)colonização acadêmica a partir das reivindicações de discentes e docentes. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>VI Foro Internacional ?Rusia e Iberoamérica en el mundo turbulento: historia y contemporaneidad?. Las nuevas relaciones cívico-militares en Brasil: Crisis, Democracia y Política (2019-2022). 2023. (Congresso).</t>
+          <t>V Encontro Discente de História da UFRGS.A historiografia como forma de resistência à Ditadura Militar chilena: uma análise do Taller Nueva Historia (1980-1990).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>XI Foro de Debates :Povos e Culturas nas Americas. America Latina Pensamento Militar. 2023. (Congresso).</t>
+          <t>Danzas y bailes en el al-Andaluz. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Gilberto de Souza Vianna</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FAYAL, R. ; FREIRE, R. ;VIANNA, G. S.. XXIII Conferência de diretores de Colégios de Defesa ibero Americanos. 2022. (Congresso).</t>
+          <t>Invasões bárbaras? Invasão do Capitólio e Idade Média. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4271,15 +3927,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Colóquio Teatro e Sociedade."Controvérsias em torno do papel do ensaiador de teatro no Brasil dos séculos XIX-XX".
-						2021. (Simpósio).</t>
+          <t>Mulheres e a Guerra na Idade Média. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4287,14 +3942,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Conversas Sobre Teatro e Sociedade. 2021. (Outra).</t>
+          <t>O desvio e a norma: diálogos em torno do Direito e da História. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4302,15 +3957,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>IX Encontro de Pesquisa em História.Aymond, quem é Aymond? A história do garganta de ouro: o artista transformista argentino e seu impacto no Teatro Brasileiro"..
-						2021. (Encontro).</t>
+          <t>O Sacramento da Confissão no discurso franciscano do século XIII, a partir dos Sermões Antonianos. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Leandro César Santana Neves</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4318,244 +3972,246 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CESÁRIO, G. Z.. IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Outro).</t>
+          <t>Uma Passagem pelo Japão Antigo. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>13ª Semana de Ciências Sociais da PUC-Rio. GT Movimentos sociais e lutas por direitos e cidadania. 2024. (Congresso).</t>
+          <t>Encontro sobre o Terceiro Teatro e a Antropologia Teatral - Uma homenagem a Eugenio Barba: 85 anos de vida, 60 anos de teatro, 34 anos de encontros no Brasil.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013.Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Seminário).</t>
+          <t>Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.; FREDERICO, M. C. V. ; ALMEIDA, B. C. . 13ª Semana de Ciências Sociais da PUC-Rio. 2024. (Congresso).</t>
+          <t>Contemporalidade - entre contemporâneos e temporalidades na na história e na historiografia. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ALMEIDA, B. C. ;RIBEIRO, Guilherme Leite.; FREDERICO, M. C. V. . Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Congresso).</t>
+          <t>Ferramentas teatrais para professores em sala de aula.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.; ZULINI, J. . ST 20. Partidos políticos nacionais: um século de história no Brasil. 2022. (Congresso).</t>
+          <t>I Ciclo discente online - PPGH - UFSC - História, Literatura e Imprensa. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme Leite.. Frentes Parlamentares. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>I Jornada Manoel Florentino de Egressos do PPGHIS-UFRJ. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. 2023; Tema:
-						O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. (Site).</t>
+          <t>Língua, discurso e política. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. 'Os anos JK' e 'Jango': o olhar cinematográfico de Silvio Tendler para o Brasil. 2023; Tema:
-						"Os anos JK" e "Jango": o olhar cinematográfico de Silvio Tendler para o Brasil. (Site).</t>
+          <t>Webinário - Teatro e História: pensando novos paradigmas da pesquisa histórica do teatro no norte e nordeste brasileiro. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Letícia Helena de Oliveira</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. O que são frentes parlamentares?. 2022; Tema:
-						Frentes parlamentares. (Site).</t>
+          <t>Educação Patrimonial: por uma pedagogia crítica da patrimonialização. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Letícia Helena de Oliveira</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>I Semana Canábica do Núcleo de Estudos Interdisciplinares em Cannabis - NEICANN/UNESP-Botucatu) g.História da maconha e sua proibição no Brasil. 2024. (Outra).</t>
+          <t>III Encontro Fluminense de Teoria da História e Historiografia.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História.A proibição da cannabis no Brasil: a emergência da criminalização do ?pito do pango? (RJ) e da ?diamba? (MA).
-						2023. (Simpósio).</t>
+          <t>II Seminário de Integração.Tihimore das Mulheres Paresi-Haliti. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Expo Cannabis Brasil. Cannabis, Literatura e Quadrinhos. 2023. (Feira).</t>
+          <t>II Simpósio Fluminense de Zoologia.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>I Seminário sobre Maconha no Brasil Contemporâneo: Reflexões, desafios e possibilidades para além da Cannabis Medicinal.Comunicação, História e Cultura Canábica no Brasil. 2023. (Seminário).</t>
+          <t>Simpósio Ecologia Histórica e História Ambiental: diálogos possíveis e perspectivas futuras.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>IX Congresso Internacional da ABRAMD - A ética na pluralidade dos saberes e dos fazeres sobre drogas. Cannabis Monitor e Maconhômetro: um projeto de pesquisa e comunicação antiproibicionista. 2023. (Congresso).</t>
+          <t>VIII Encuentro Latinoamericano de Recreación y Ocio.ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>IX Congresso Internacional da ABRAMD - A ética na pluralidade dos saberes e dos fazeres sobre drogas. Contribuições para a Educação sobre drogas: ?Ciência Canábica? para o EJA Ensino Médio. 2023. (Congresso).</t>
+          <t>History of Latin American Aesthetics, Technology, and Design.Definition of aesthetics and design in the context of Latin America. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4563,183 +4219,181 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>XIV RAM - Reunião de Antropologia do Mercosul. A proibição da maconha no Brasil: a emergência da criminalização do pango e da diamba no século XIX. 2023. (Congresso).</t>
+          <t>4º Seminário Amazônico de História e Natureza.Ruschi, Greenewalt e as fotografias coloridas ultrarrápidas de beija-flores. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>I Congresso Brasileiro Sobre Psicodélicos: Clínica, Ciência e Política. 2022. (Congresso).</t>
+          <t>75ª Reunião Anual da Sociedade Brasileira para o Progresso da Ciência.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>III Encontro ABRAMD Educação Rio - II Jornada Educação e Drogas do GPED/UERJ.Notícias sobre Maconha: o Podcast como recurso educativo.
-						2022. (Encontro).</t>
+          <t>7ª Jornada do Sistema CEP/Conep: Ética em pesquisas com povos originários.. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>III Seminário Internacional Cannabis Medicinal: Um Olhar para o FutFuturo. 2022. (Seminário).</t>
+          <t>Collaborative Historical Research in the Age of Big Data: Lessons from an interdisciplinary project. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>X Encontro de Pesquisa em História da UFMG ? ?Tempo, Memória e Reminiscência: o (re)fazer histórico e suas perspectivas?.O ?DUQUE DA MACONHA? E AS REPRESENTAÇÕES DA CANNABIS NA IMPRENSA: UMA HISTÓRIA DO ESTIGMA SOCIAL DA PLANTA E DE SEUS USOS POLÍTICOS (1950-1955).
-						2022. (Encontro).</t>
+          <t>Digital History &amp; Theory: An Open Conversation on the Future of Digital Scholarship.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>10º Seminário Interdisciplinar em Sociologia e Direito.O ?Duque da Maconha? e as representações da cannabis na imprensa carioca em contextos políticos entre 1945-1955. 2021. (Seminário).</t>
+          <t>ExpoT&amp;C ? 30 anos. Expositor - Instituto Nacional da Mata Atlântica. 2023. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>8º Congresso Internacional da ABRAMD - Por uma política de drogas democráticas, inclusiva e diversa. Cannabis Monitor e Maconhômetro: ferramentas de pesquisa e ativismo antiproibicionista. 2021. (Congresso).</t>
+          <t>19ª Semana Nacional de Ciência e Tecnologia. Expositor na 19ª Semana Nacional de Ciência e Tecnologia. 2022. (Feira).</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>I Jornada APCESP de Conhecimento em Cannabis.História e proibição da cannabis no Brasil.
-						2021. (Encontro).</t>
+          <t>Curso Semanal: Março até Dezembro de 2022. Online. "Curso de Alta Especialización. 2022. Un continente, miradas comparadas. Los universos coloniales americanos y las monarquías ibéricas".. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>POLICARPO, F.;MAIA, G.; MOTTA, Y. J. P. . IV Seminário de Pesquisa sobre os Usos Terapêuticos da Maconha. 2024. (Outro).</t>
+          <t>CONFERÊNCIA DE ABERTURA DA II SEMANA ACADÊMICA DA ESCOLA NAVAL.DEFESA E CIÊNCIA NA ARQUITETURA MILITAR PORTUGUESA DO SÉCULO XVIII. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MAIA, G.; CARNEIRO, S. ; DIAS, L. L. . As drogas na história: instituições, sujeitos, objetos e usos. 2023. (Outro).</t>
+          <t>I Jornada de Egressos Prof. Manolo Florentino.Tratados de arquitetura militar: fontes de estudos históricos em diálogo. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MAIA, G.; DIAS, L. L. ; CARNEIRO, S. . As drogas na história: instituições, sujeitos, objetos e usos. 2022. (Outro).</t>
+          <t>Oficina de Leitura Paleográfica de Textos Portugueses - Época Medieval e Moderna. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ingrid Gomes Ferreira</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>15º Encontro Regional Sudeste de História Oral: Memória Corpo Mundo.Ação comunitária no combate à COVID-19 na favela da Rocinha: história oral como metodologia de pesquisa.
-						2023. (Encontro).</t>
+          <t>Congresso Internacional Independências do Brasil.. mesa redonda O 7 de setembro na escola, com o tema Pesquisa e ensino sobre Independências na Educação Básica: aproximações a partir do Portal do Bicentenário. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ingrid Gomes Ferreira</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4747,15 +4401,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>20º Encontro de História da ANPUH-Rio. "1822/2022: 200 anos de História e Historiografia".Movimentos sociais e o território urbano: a luta anti-remocionista da Vila Autódromo.
-						2022. (Encontro).</t>
+          <t>IV Congresso Internacional da Adhilac-Brasil. ?Portal Do Bicentenário? Da Independência Do Brasil: Contribuições Para A Formação Docente e o Ensino De História. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ingrid Gomes Ferreira</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4763,15 +4416,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.Vozes da resistência: história oral como metodologia para o estudo de um movimento social urbano.
-						2022. (Encontro).</t>
+          <t>Live- Parceria Portal do Bicentenário e UFMS."Por que tratar de Direitos Humanos na escola?". 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4779,7 +4431,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>VII Encontro Estadual da ANPUH - PI.Repressão e mundos do trabalho: o caso da greve da fábrica de tecidos Deodoro, Rio de Janeiro (1935).
+          <t>Virando o 7- Portal do Bicentenário.Portal do Bicentenário: 2 anos sonhando todos os brasis..
 						2022. (Encontro).</t>
         </is>
       </c>
@@ -4787,37 +4439,39 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE. Simpósio Temático Mundos do Trabalho: Trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2023. (Outro).</t>
+          <t>Virando o 7- Portal do Bicentenário.O 7 de Setembro na escola: materiais didáticos do Portal.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; SOUZA, Vitor Leandro de . Simpósio Temático Mundos do Trabalho: Trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2022. (Outro).</t>
+          <t>Virada da Independência- Portal do Bicentenário.s quebradeiras de coco: saberes, sabores e multiplicidade de Brasis.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4825,14 +4479,15 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE. ST Gênero e raça nos mundos do trabalho. 2021. (Outro).</t>
+          <t>Virada da Independência- Portal do Bicentenário.Deixem que falamos por nós: a mulher na música e na poesia.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4840,14 +4495,15 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; MORAES, R. F. ; SOUZA, Vitor Leandro de . Simpósio - Mundos do Trabalho: trabalhadores/as escravizados/as e livres (século XIX e início do XX). 2021. (Outro).</t>
+          <t>Virada da Independência- Portal do Bicentenário.Torto Arado e a Literatura ? O quê nos diz para além da Independência?.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Matheus Almeida Gonçalves Pereira</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4855,29 +4511,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; SILVA, N.F. ; NASCIMENTO, L. G. ; PINHEIRO, I. S. ; SILVA, M.B.G.M. . IV Encontro Fluminense de Teoria e Historiografia da História. 2021. (Outro).</t>
+          <t>IV Encontro Fluminense de Teoria da História e Historiografia.O corpo gótico segundo Frankenstein (1831): entre a emotividade e a monstruosidade. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Isabelle Cristina da Silva Pires</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PIRES, ISABELLE; ALCÂNTARA, Patricia Costa de . Simpósio Mundos do Trabalho: luta por direitos entre Primeira República e o Estado Novo. 2021. (Outro).</t>
+          <t>Encontro de Pesquisa em História (EPHIS).Governar o céu, governar a terra: apropriações brunianas para a concepção de stasis.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4885,30 +4542,29 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Encontro Acadêmico do Polo UAB/Cederj Miguel Pereira.Introdução à leitura e escrita acadêmica.
-						2023. (Encontro).</t>
+          <t>Passados em transe: Meta-história e o Brasil 50 anos depois. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>X Seminário de História Ambiental - Meio Ambiente, História e Ensino. 2023. (Seminário).</t>
+          <t>Congresso do Laboratório de Estudos Republicanos. "A cidade diante do tempo: notas de pesquisa em torno da experiência do tempo na História do Povo Florentino. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4916,14 +4572,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Desenho Didático para o Ensino Online. 2022. (Outra).</t>
+          <t>Dante Alighieri: Obra Literária, Pensamento e Época, Prof. Dr. Carlos Berriel (UNICAMP). 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4931,14 +4587,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Educação Ambiental. 2022. (Outra).</t>
+          <t>O problema do tempo na filosofia de Paul Ricoeur. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4946,15 +4602,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>I Encontro de Alimentação e Cultura na América Latina.
-						2022. (Encontro).</t>
+          <t>V Colóquio Auores do Renascimento: historiografia e historia da arte."O medo passou a ser universal e pervasivo e o sentimento da cidade mudou de paz e felicidade para alarme e ansiedade?: a cidade e o tempo na História do Povo Florentino de Leonardo Bruni. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -4962,29 +4617,30 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>O Uso de Aplicativos Web na Construção de Materiais Educacionais. 2022. (Outra).</t>
+          <t>V Colóquio Autores do Renascimento. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Sustentabilidade Ambiental na Comunidade Escolar. 2022. (Outra).</t>
+          <t>31º Simpósio Nacional de História - ST 080 - História Moderna: concepções, temas e perspectivas para o ensino e a pesquisa.O tempo e a política nas Historiae de Leonardo Bruni.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Maíra Cristina Tomé Fonseca</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4992,787 +4648,795 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>V Escuela de Posgrado de la Sociedad Latinoamericana y Caribeña de Historia Ambiental - SOLCHA.'Serão as frutas que transformarão o mundo': o vegetarianismo no Brasil e a Sociedade Vegetariana Brasileira no início do século XX. 2022. (Outra).</t>
+          <t>Encontro do GT História do Crime, da Polícia, das práticas de Justiça e suas Fontes - ANPUH RS.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Maíra Cristina Tomé Fonseca</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Colóquio Devir-Animal, Perspectivas indígenas e a Descolonização dos animais. 2021. (Outra).</t>
+          <t>X EPHIS (Encontro de Pesquisa em História - UFMG). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Maíra Cristina Tomé Fonseca</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Geography, Geographers and Historians: Territory and Nature in Latin America - Environmental History Week. 2021. (Outra).</t>
+          <t>XVI Encontro Estadual de História - ANPUH-RS.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Janaína Di Lourenço Esteves</t>
+          <t>Maíra Cristina Tomé Fonseca</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2021</v>
       </c>
       <c r="C176" t="inlineStr">
+        <is>
+          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
+						2021. (Simpósio).</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Maíra Cristina Tomé Fonseca</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>III Seminário de Estudos Históricos da Universidade Federal do Paraná. 2021. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Maíra Cristina Tomé Fonseca</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>IV Seminário Internacional Micro-História, Trajetórias e Imigração. 2021. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Maíra Cristina Tomé Fonseca</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>IX EPHIS (Encontro de Pesquisa em História - UFMG) - Alcances da História: Compreender e Transformar. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Moisés Corrêa Fonseca da Silva</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>África em Contextos Globais - lançamento.Uma breve análise sobre a historiografia e seus novos paradigmas a partir da História da África. 2024. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Moisés Corrêa Fonseca da Silva</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>V Simpósio Internacional da Rede Brasileira de História Pública.História da África como História Pública e História Pública como História da África: uma proposta dialética nas viradas da oficina da História.
+						2024. (Simpósio).</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Moisés Corrêa Fonseca da Silva</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>XI Encontro Estadual de História da ANPUH Bahia.São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (sécs. XVIII e XIX).
+						2022. (Simpósio).</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Moisés Corrêa Fonseca da Silva</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>XI Encontro Estadual de História da ANPUH Bahia.
+						2022. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Moisés Corrêa Fonseca da Silva</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>III Seminário de Estudos Históricos da UFPR.São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (séculos XVIII-XIX). 2021. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Moisés Corrêa Fonseca da Silva</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Seminário Diálogos Geraes.Disputas em Ajudá: São João Baptista. 2021. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Moisés Peixoto Soares</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>?Igreja Católica e a Escravidão Moderna, séculos XVI-XIX?.Arquivos Eclesiásticos e História da Escravidão. 2024. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Moisés Peixoto Soares</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>IX Encontro Internacional de História Colonial (EIHC):.?Dimensões globais e locais dos impérios coloniais: redes, circulação e dinâmicas (sécs. XV-XIX)?.
+						2023. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Moisés Peixoto Soares</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>IX JORNADAS NACIONALES DE HISTORIA SOCIAL.Olhares enviesados: de pretos e mulatos a pardos e brancos, Piedade de Iguaçu e Jacutinga, século XVIII. 2023. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Moisés Peixoto Soares</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Grupo de Estudos História da Escravidão e História dos Índios: diálogos (GEHEHI).Quem registra o quê? Formas de identificação de classificação nos documentos, nos séculos XVIII e XIX.
+						2021. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Percepções Imperiais e Circulação no Mundo Atlântico Português.
+						2024. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Webinário do Instituto de História da Universidade Federal Fulminense: As experiências coloniais portuguesa e espanhola. Comparações, denúncias e apologia ao longo dos séculos XVI e XVII. 2024. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Em Defesa das Mulheres no Renascimento: Valla, Fonte e Tarabotti. 2023. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>História em  Estudos Culturais - III  Diálogos sobre História - Ciclo de Minicursos Online da UFPR. 2023. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Para além dos ossos: escavações arqueológicas no Bairro do Recife. 2023. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>VI Colóquio NEJAP - A Espada e a Pena: Guerra e Cultura Marcial no Japão. 2022. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>De escravo a senhor: trajetórias (séculos XVII-XIX). 2021. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>I Colóquio de Filologia e História: documentação histórica e narrativas de violência e de resistência nos séculos XVIII e XIX. 2021. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mylena Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>OLHARES CONTEMPORÂNEOS SOBRE O ORIENTE MÉDIO.OLHARES CONTEMPORÂNEOS SOBRE O ORIENTE MÉDIO. 2021. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>19º Seminário Nacional de História da Ciência e da Tecnologia (19SNHCT).Se essa rua fosse minha eu mandava arborizar: história ambiental urbana na cidade do Rio de Janeiro. 2024. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Que doidice é essa: projeto colonial, exclusão social e loucura | Instituto Pretos Novos. 2024. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Quilombo, um teto para os sambistas | Instituto Pretos Novos. 2024. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>15 anos da Lei 11.645/2008 e as questões indígenas na escola: desafios e  e  potencialidades | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>África e diáspora: o perigo da história única | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ainda sim me levanto: os arquétipos iorubás e a insubmissão feminina | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Encontro Internacional História &amp; Parcerias.ÁRVORES E CIDADE: A ARBORIZAÇÃO URBANA VOLUNTÁRIA NO RIO DE JANEIRO.
+						2023. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Favela: reafirmando a integração de cidade e sociedade | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Habemus Muquifu: Museu dos Quilombos e Favelas Urbana | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>História, Ambiente e Conhecimento no Antropoceno.
+						2023. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>O Afro-Patrimônio de Belo Horizonte | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Periferia e sustentabilidade | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Racismo Ambiental | Instituto Pretos Novos. 2023. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>XI Encontro de Pesquisa em História Ephis UFMG Narrativas em disputa: nostalgia, identidades e apropriações do passado.Arborização urbana voluntária: dinâmicas da natureza urbana no Rio de Janeiro.
+						2023. (Simpósio).</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>X Seminário de História Ambiental - Meio Ambiente, História e Ensino. 2023. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>XVII Semana de História Política da UERJ.Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>XVII Semana de História Política da UERJ.Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>8o Seminário Fluminense de Pós-Graduandos em História | 8a Jornada de Pós-Graduação em História das Ciências e da Saúde.Grupos voluntários de arborização urbana: interação socioambiental na cidade do Rio de Janeiro (1992-2022). 2022. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
+						2022. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Lauch of the Atlas of the Other World.A favela?s strategies and dynamics  to respond to changes in its  urban ecosystem  Morro da Babilônia.
+						2022. (Encontro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>X Encontro de Pesquisa em História da EPHIS UFMG ? Tempo, Memória e Reminiscência: o (re)fazer histórico e suas perspectivas. 2022. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
+						2021. (Simpósio).</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Bíblia - Oralidade e cultura africana | Instituto Pretos Novos. 2021. (Oficina).</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Darwin Day UFRJ 2021. 2021. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Natasha Augusto Barbosa</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t>II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>I Webinário Agroecológico: Movimento, Ciência e Prática. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Meio Ambiente para Ensinar História. 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>X Simposio Latinoamericano y Caribeño de Historia Ambiental - SOLCHA.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.; SABINO, C. . XXV Encontro de História UNIRIO/Cederj - Polo Miguel Pereira. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.; SABINO, C. . XXIV Encontro de História UNIRIO/Cederj - Polo Miguel Pereira. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.; ALBUQUERQUE, G. ; ROSA, P. . História Ambiental: uma introdução. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Jefferson dos Santos Alves</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>I Jornada de Egressos Professor Manolo Florentino (PPGHIS/UFRJ).O papel político da prática científica jesuítica em Portugal: uma análise a partir da supressão (1759).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Jefferson dos Santos Alves</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>ALVES, J. S.. Ciclo de conferências Centenário da Revista A Ordem. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Jerônimo Aguiar Duarte da Cruz</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>ALVARENGA, F. M. ;CRUZ, Jerônimo Aguiar Duarte da. Simpósio Temático História agrária, história da propriedade e o rural em perspectiva: temporalidades, atores e lutas (séculos XVIII-XXI). 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>João Fernando Barreto de Brito</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>II Seminário Nacional de História Social dos Sertões.Os Quebra-quilos no Sertão do Seridó: reconstruindo a sedição anti-métrica na Vila do Príncipe através das páginas de um processo-crime (1874-1875). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Júlio Dória</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>23 International Congress of Social History. The Black and Mestizo's Peasant Community of Rio de Janeiro's Hinterland. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Perspectivas pós-coloniais e decoloniais no ensino da História e de Relações Internacionais.A de(s)colonização acadêmica a partir das reivindicações de discentes e docentes. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>V Encontro Discente de História da UFRGS.A historiografia como forma de resistência à Ditadura Militar chilena: uma análise do Taller Nueva Historia (1980-1990).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>ARAUJO, M. P. N.;DA SILVA, LAYS CORRÊA. História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da; QUEIROZ, Andréa Cristina de Barros . Simpósio 08 - História e Memória das Ditaduras e  Redemocratizações na  América Latina. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>SEIXLACK, ALESSANDRA GONZALEZ DE CARVALHO ; VALE CASTRO, FERNANDO LUIZ ;DA SILVA, LAYS CORRÊA. Ensino e Pesquisa de História da América no século XXI: desafios e possibilidades. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da; QUEIROZ, Andréa Cristina de Barros . Simpósio 25 - História e Memória das Ditaduras e Redemocratizações na América Latina. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>CORREA, L.. Mesa "Esquerdas, lutas políticas e resistências". 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>CORREA, L.;ARAUJO, M. P. N.;GOMES, I. S.. História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>CORREA, L.;SILVA, Izabel Priscila Pimentel da;ARAUJO, M. P. N.;GOMES, I. S.. Seminário Internacional ?45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil?. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Danzas y bailes en el al-Andaluz. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Invasões bárbaras? Invasão do Capitólio e Idade Média. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Mulheres e a Guerra na Idade Média. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>O desvio e a norma: diálogos em torno do Direito e da História. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>O Sacramento da Confissão no discurso franciscano do século XIII, a partir dos Sermões Antonianos. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Uma Passagem pelo Japão Antigo. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>CASTANHO, G. C. G. ;NEVES, L. C. S.. XIII Encontro Internacional do LATHIMM: A digitalização da medievalística brasileira (e além...). 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>FREITAS, Mariana Durães de ;NEVES, Leandro César S.; RODRIGUES, Daniela Aparecida ; PEREIRA SILVA, Pedro Henrique . Coordenação ST X EPHIS/UFMG: Antiguidade Tardia e Idade Média: Poder, Fé e Representações. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . II Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>NEVES, Leandro César S.; CASTANHO, G. C. G. . III Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>CRUZ, Alfredo B. da C. ;NEVES, Leandro César S.; BERNARDO, Guilherme W. . Coordenação ST XVI Semana de História UFU: Uma periferia historiográfica? A Idade Média para além do Ocidente Medieval. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Leandro César Santana Neves</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>MINARDI, Carolina C. ; BARBOSA, Fábio Henrique R. ;NEVES, Leandro César S.; PEREIRA SILVA, Pedro Henrique . Coordenação ST IX EPHIS/UFMG: Cultura e Intelectualidade na Antiguidade Tardia e Idade Média. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Encontro sobre o Terceiro Teatro e a Antropologia Teatral - Uma homenagem a Eugenio Barba: 85 anos de vida, 60 anos de teatro, 34 anos de encontros no Brasil.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Contemporalidade - entre contemporâneos e temporalidades na na história e na historiografia. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Ferramentas teatrais para professores em sala de aula.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>I Ciclo discente online - PPGH - UFSC - História, Literatura e Imprensa. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>I Jornada Manoel Florentino de Egressos do PPGHIS-UFRJ. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Língua, discurso e política. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Webinário - Teatro e História: pensando novos paradigmas da pesquisa histórica do teatro no norte e nordeste brasileiro. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.; SILVA, S. A. N. . XIX Simpósio do Programa de Pós-Graduação em Ciência da Literatura. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>SABINO, C. L. M. ;NASCIMENTO, L. G.; MONTEIRO, D. P. . Jornada Acadêmica do curso de Licenciatura em História. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.; SOUZA, K. B. A. J. . XVIII Simpósio do Programa de Pós-graduação em Ciência da Literatura. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>NASCIMENTO, L. G.; PINHEIRO, I. S. ; BARBOSA, M. ; FREITAS, N. ; CESARIO, G. Z. ; ALENCAR, A. C. . IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>NASCIMENTO, L. G.. Introdução à leitura e produção textual, plágio e inteligência artificial. 2024. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Letícia Helena de Oliveira</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Educação Patrimonial: por uma pedagogia crítica da patrimonialização. 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Letícia Helena de Oliveira</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>III Encontro Fluminense de Teoria da História e Historiografia.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -5780,14 +5444,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Letícia; RAMOS, S. . POTÊNCIAS NEGRAS DE CUIABÁ: ESTRATÉGIAS FEMININAS - PASSADO E PRESENTE. 2021. (Outro).</t>
+          <t>IV Encontro Fluminense de Arborização urbana. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -5795,29 +5459,30 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>RAMOS, S. ;OLIVEIRA, Letícia. Da experiência sensorial à educação patrimonial com arte: Cuiabá em experimentos e acessibilidade. 2021. (Exposição).</t>
+          <t>PRÉ-ENCONTRO NACIONAL DOS PLANTADORES DE ÁRVORES.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Letícia; RAMOS, S. ; SILVA, Marcus Vinicius . "Pequena África" em Cuiabá: revisitando o comércio, as vivências e os saberes negros. 2021. (Outro).</t>
+          <t>Olimpíada Nacional em História do Brasil. Orientação de equipes discentes durante a 14ª ONHB. 2022. (Olimpíada).</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Letícia Helena de Oliveira</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -5825,77 +5490,77 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Letícia. A contribuição da educação patrimonial dos espaços negros na luta antirracista. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>Olimpíada Nacional em História do Brasil. Orientação de equipes discentes durante a 13ª ONHB. 2021. (Olimpíada).</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>II Seminário de Integração.Tihimore das Mulheres Paresi-Haliti. 2021. (Seminário).</t>
+          <t>32º Simpósio Nacional de História da ANPUH.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>II Simpósio Fluminense de Zoologia.
-						2021. (Simpósio).</t>
+          <t>32º Simpósio Nacional de História da ANPUH.A experiência da I Guerra em imagens de luto: uma análise da obra de Käthe Kollwitz (1914 1945).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Simpósio Ecologia Histórica e História Ambiental: diálogos possíveis e perspectivas futuras.
-						2021. (Simpósio).</t>
+          <t>I Jornada de estudos em pensamento crítico contemporâneo: experiências, memórias e mediações das crises do século XX.Como olhar as imagens de luto?: uma análise da obra de Käthe Kollwitz (1914-45). 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>VIII Encuentro Latinoamericano de Recreación y Ocio.ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI.
-						2021. (Encontro).</t>
+          <t>11ª Semana de Integração Acadêmica da UFRJ.Quase heróis: os inválidos da Primeira Guerra Mundial em Portugal.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5903,14 +5568,15 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
+          <t>Jornada de estudos históricos Prof. Manoel Salgado Guimarães.MEDIAÇÕES E SINTOMAS DO LUTO: UMA ANÁLISE DA OBRA DE KÄTHE KOLLWITZ (1914-1945).
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5918,121 +5584,123 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. ?Generosidade da Terra, Ingratidão dos Homens?: Conservação da Natureza no Brasil Império. 2022. (Curso de curta duração ministrado/Extensão).</t>
+          <t>XVIII Semana de História da UERJ "Os caminhos da democracia"."Alguma coisa, mesmo assim, ali se mostra": sintomas visuais do luto na obra de Käthe Kollwitz (1914-1945).
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>History of Latin American Aesthetics, Technology, and Design.Definition of aesthetics and design in the context of Latin America. 2024. (Outra).</t>
+          <t>37ª Semana de História da UFJF.A obra de Käthe Kollwitz e o vazio na representação do luto (1914 - 1945).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>4º Seminário Amazônico de História e Natureza.Ruschi, Greenewalt e as fotografias coloridas ultrarrápidas de beija-flores. 2023. (Seminário).</t>
+          <t>Jornada de História da UFBA: História em debate.Torre de mães: a agência feminina na obra de Käthe Kollwitz (1914 - 1945).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>75ª Reunião Anual da Sociedade Brasileira para o Progresso da Ciência.
-						2023. (Encontro).</t>
+          <t>Semana de História PUC-Rio 2021.Aqui jaz o melhor da juventude alemã: uma análise da geometria da memória na obra de Käthe Kollwitz (1914 1945).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7ª Jornada do Sistema CEP/Conep: Ética em pesquisas com povos originários.. 2023. (Outra).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).Käthe Kollwitz: a arte como expressão do luto e da guerra. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Thayná Fuly Garcia</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Collaborative Historical Research in the Age of Big Data: Lessons from an interdisciplinary project. 2023. (Outra).</t>
+          <t>Ceará Científico 2022. As relações sócio-políticas em tempos de seca: uma análise das consequências históricas da construção do açude Pereira de Miranda através da imprensa brasileira (1950-1990). 2022. (Feira).</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Digital History &amp; Theory: An Open Conversation on the Future of Digital Scholarship.
-						2023. (Simpósio).</t>
+          <t>Ibero-Dutch Imperial Entanglements in the Long Seventeenth Century: Geopolitical Shifts ins Global Perspective.Priest Antônio Vieira: the Hidden Ambassador in the Negotiations between Portugal and the Netherlands (1646-1649). 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>ExpoT&amp;C ? 30 anos. Expositor - Instituto Nacional da Mata Atlântica. 2023. (Exposição).</t>
+          <t>II Colóquio Internacional de História e Diplomacia.Francisco de Sousa Coutinho e a embaixada portuguesa em Haia: negócios e negociações. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -6040,119 +5708,122 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>19ª Semana Nacional de Ciência e Tecnologia. Expositor na 19ª Semana Nacional de Ciência e Tecnologia. 2022. (Feira).</t>
+          <t>Independências do Brasil: os gritos e os silêncios da história.A diplomacia na Independência do Brasil. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Curso Semanal: Março até Dezembro de 2022. Online. "Curso de Alta Especialización. 2022. Un continente, miradas comparadas. Los universos coloniales americanos y las monarquías ibéricas".. 2022. (Outra).</t>
+          <t>Ciclo de dabates: temas e questões na pesquisa histórica.Um Jesuíta diplomata: as missões do Padre Antônio Vieira entre 1646-1648. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
+          <t>Thiago Vinícius Ferreira</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CONFERÊNCIA DE ABERTURA DA II SEMANA ACADÊMICA DA ESCOLA NAVAL.DEFESA E CIÊNCIA NA ARQUITETURA MILITAR PORTUGUESA DO SÉCULO XVIII. 2021. (Outra).</t>
+          <t>Permanent Seminar CLAVIS. A New Brazilian Subject: Brasilia as Imagined by Mário Pedrosa. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>I Jornada de Egressos Prof. Manolo Florentino.Tratados de arquitetura militar: fontes de estudos históricos em diálogo. 2021. (Outra).</t>
+          <t>Encontro Internacional História &amp; Parcerias 4º edição.Da excepcionalidade de Don Jayme à ?normalidade? de João Miranda: condições de vida e trabalho por um intelectual negro pós-1888. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Oficina de Leitura Paleográfica de Textos Portugueses - Época Medieval e Moderna. 2021. (Oficina).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.coordenador do ST2.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SILVA, L. N. O.. I Jornada de Egressos Prof. Manolo Florentino. 2021. (Outro).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.?Colonos ?jecas? e padeiros rebeldes: raça e classe trabalhadora no pós-abolição em Barra Mansa (1888-1929)?.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Luís Ricardo Araujo da Costa</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>COSTA, Luís. Festival Carioca de Fotografia Analógica. 2022. (Festival).</t>
+          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.Posibilidades teóricas y metodológicas entre raza (color) y sindicalismo: agendas del Centro Operário de Barra Mansa-RJ como muestras (1933). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Congresso Internacional Independências do Brasil.. mesa redonda O 7 de setembro na escola, com o tema Pesquisa e ensino sobre Independências na Educação Básica: aproximações a partir do Portal do Bicentenário. 2022. (Congresso).</t>
+          <t>Semana de História Política da UERJ."Com vinagre não se apanha moscas": migração, trabalho rural e relações raciais em Barra Mansa -RJ(1888-1929).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Valéria Dorneles Fernandes</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -6160,14 +5831,15 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>IV Congresso Internacional da Adhilac-Brasil. ?Portal Do Bicentenário? Da Independência Do Brasil: Contribuições Para A Formação Docente e o Ensino De História. 2022. (Congresso).</t>
+          <t>IX Simposio de Orthoptera e II Simposio de insetos osthopteroides.É preciso conhece-lo para melhor destrui-lo: nuvens de gafanhotos e ciência na América do Sul (1897-1952).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Valéria Dorneles Fernandes</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -6175,78 +5847,78 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Live- Parceria Portal do Bicentenário e UFMS."Por que tratar de Direitos Humanos na escola?". 2022. (Seminário).</t>
+          <t>V Escuela de Posgrado de SOLCHA.Coordenaciòn de grupos de trabajo.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Valéria Dorneles Fernandes</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Virando o 7- Portal do Bicentenário.Portal do Bicentenário: 2 anos sonhando todos os brasis..
-						2022. (Encontro).</t>
+          <t>X Simposio Sociedad Latinoamericana y Caribeña de Historia Ambiental.Las influencias climaticas y ambientales en la formación de nubes de  langostas (S.CANCELLATA.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Vinner Stutz de Oliveira</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Virando o 7- Portal do Bicentenário.O 7 de Setembro na escola: materiais didáticos do Portal.
-						2022. (Encontro).</t>
+          <t>4º Simpósio Sudeste da ABHR.Da Figueira ao Templo.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Vinner Stutz de Oliveira</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Virada da Independência- Portal do Bicentenário.s quebradeiras de coco: saberes, sabores e multiplicidade de Brasis.
-						2021. (Encontro).</t>
+          <t>XI Seminário Interno do Programa de Pósgraduação em História Social: Experiências e saberes: História, política, tecnologias e resistências.Dos cantões da Suíça à serra de Macaé: imigração, trabalho e pertencimento na imigração suíça e alemã à Serra Fluminense no século XIX. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Vinícius Patrocínio Pereira Costa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Virada da Independência- Portal do Bicentenário.Deixem que falamos por nós: a mulher na música e na poesia.
-						2021. (Encontro).</t>
+          <t>20º Encontro de História da ANPUH-Rio.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Vinícius Patrocínio Pereira Costa</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -6254,76 +5926,76 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Virada da Independência- Portal do Bicentenário.Torto Arado e a Literatura ? O quê nos diz para além da Independência?.
-						2021. (Encontro).</t>
+          <t>31° Simpósio Nacional de História ? História, Verdade e Tecnologia, promovido pela Associação Nacional de História - ANPUH-Brasil.Murray Rothbard e a redefinição do libertarianismo estadunidense na década de 1970.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
+          <t>Vinícius Patrocínio Pereira Costa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>PORTO, Maria Beatriz G. B.; TEIXEIRA, E. A. . Virando o 7- Portal do Bicentenário. 2022. (Outro).</t>
+          <t>XXXVII Semana de História da Universidade Federal de Juiz de Fora,.Esquerda e direita dentro do libertarianismo estadunidense: o surgimento do movimento libertário independente. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Matheus Almeida Gonçalves Pereira</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>IV Encontro Fluminense de Teoria da História e Historiografia.O corpo gótico segundo Frankenstein (1831): entre a emotividade e a monstruosidade. 2021. (Seminário).</t>
+          <t>Arquivo Faz Escola - Arquivo Nacional.Palestra sobre o documentário "Colcha de Retalhos". 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisa em História (EPHIS).Governar o céu, governar a terra: apropriações brunianas para a concepção de stasis.
-						2024. (Encontro).</t>
+          <t>20º Encontro de História da ANPUH-Rio.Criando a Associação Profissional de Empregadas Domésticas do Rio de Janeiro.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Passados em transe: Meta-história e o Brasil 50 anos depois. 2023. (Seminário).</t>
+          <t>I Roda de Conversa no CREJA: 'Trabalhadoras Domésticas e a luta por direitos'.'Trabalhadoras Domésticas e a luta por direitos'. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -6331,14 +6003,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Congresso do Laboratório de Estudos Republicanos. "A cidade diante do tempo: notas de pesquisa em torno da experiência do tempo na História do Povo Florentino. 2022. (Congresso).</t>
+          <t>Iº Congresso de la Red de Investigación sobre Trabajo del Hogar  em América Latina. Roda de Conversa sobre o Documentário "Colcha de Retalhos". 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -6346,14 +6018,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Dante Alighieri: Obra Literária, Pensamento e Época, Prof. Dr. Carlos Berriel (UNICAMP). 2022. (Outra).</t>
+          <t>Iº Congresso de la Red de Investigación sobre Trabajo del Hogar  em América Latina. Trabalhadoras Domésicas e o Regime Militar Brasileiro. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -6361,14 +6033,15 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>O problema do tempo na filosofia de Paul Ricoeur. 2022. (Outra).</t>
+          <t>VII ENCONTRO ESTADUAL DE HISTÓRIA ? ANPUH-PI.A experiência de trabalhadoras domésticas na Ditadura Militar brasileira.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -6376,14 +6049,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>V Colóquio Auores do Renascimento: historiografia e historia da arte."O medo passou a ser universal e pervasivo e o sentimento da cidade mudou de paz e felicidade para alarme e ansiedade?: a cidade e o tempo na História do Povo Florentino de Leonardo Bruni. 2022. (Outra).</t>
+          <t>VII Seminário Internacional Mundos do Trabalho.A Juventude Operária Católica e a formação da primeira Associação Profissional de trabalhadoras domésticas do Rio de Janeiro. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -6391,1817 +6064,24 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>V Colóquio Autores do Renascimento. 2022. (Outra).</t>
+          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.História Oral e Memória de Trabalhadoras Domésticas Sindicalizadas.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>2021</v>
       </c>
       <c r="C266" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História - ST 080 - História Moderna: concepções, temas e perspectivas para o ensino e a pesquisa.O tempo e a política nas Historiae de Leonardo Bruni.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Encontro do GT História do Crime, da Polícia, das práticas de Justiça e suas Fontes - ANPUH RS.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>X EPHIS (Encontro de Pesquisa em História - UFMG). 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>XVI Encontro Estadual de História - ANPUH-RS.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>III Seminário de Estudos Históricos da Universidade Federal do Paraná. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>IV Seminário Internacional Micro-História, Trajetórias e Imigração. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>IX EPHIS (Encontro de Pesquisa em História - UFMG) - Alcances da História: Compreender e Transformar. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>TOMÉ, Maíra.; OLIVEIRA, P. H. F. D. . Coordenação do Simpósio Temático "História do Crime e da Violência: atores e instituições" - X Semana de História da UFTM. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>África em Contextos Globais - lançamento.Uma breve análise sobre a historiografia e seus novos paradigmas a partir da História da África. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>V Simpósio Internacional da Rede Brasileira de História Pública.História da África como História Pública e História Pública como História da África: uma proposta dialética nas viradas da oficina da História.
-						2024. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>XI Encontro Estadual de História da ANPUH Bahia.São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (sécs. XVIII e XIX).
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>XI Encontro Estadual de História da ANPUH Bahia.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>III Seminário de Estudos Históricos da UFPR.São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (séculos XVIII-XIX). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Seminário Diálogos Geraes.Disputas em Ajudá: São João Baptista. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>SILVA, M. C. F.. Semana da Consciência Negra do Museu Histórico Nacional. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>SILVA, M. C. F.;AGUILAR, N.; SOARES, F. P. . II Seminário Internacional de Ensino e Pesquisa em História da África na Contemporaneidade. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>SILVA, M. C. F.;AGUILAR, N.. Simpósio temático Gênero e História das Mulheres no Continente Africano da III Jornada de História e Gênero - Feminismos e representatividade na história. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Moisés Peixoto Soares</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>?Igreja Católica e a Escravidão Moderna, séculos XVI-XIX?.Arquivos Eclesiásticos e História da Escravidão. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Moisés Peixoto Soares</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>IX Encontro Internacional de História Colonial (EIHC):.?Dimensões globais e locais dos impérios coloniais: redes, circulação e dinâmicas (sécs. XV-XIX)?.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Moisés Peixoto Soares</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>IX JORNADAS NACIONALES DE HISTORIA SOCIAL.Olhares enviesados: de pretos e mulatos a pardos e brancos, Piedade de Iguaçu e Jacutinga, século XVIII. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Moisés Peixoto Soares</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Grupo de Estudos História da Escravidão e História dos Índios: diálogos (GEHEHI).Quem registra o quê? Formas de identificação de classificação nos documentos, nos séculos XVIII e XIX.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Moisés Peixoto Soares</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Jesus, Douglas Lima de ; PEREZ, E. C. ;PEIXOTO, Moisés.. Historiador e formador de historiadores. Trajetória docente e contribuição  historiográfica de Eduardo França Paiva. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Moisés Peixoto Soares</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>PEIXOTO, Moisés.; BARBUDA, D. . Coordenação de Simpósio Temático:Índios, africanos e mestiçados na Ibero-América: dinâmicas de mestiçagens, mobilidades e protagonismos (séc. XVI-XIX),. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Percepções Imperiais e Circulação no Mundo Atlântico Português.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Webinário do Instituto de História da Universidade Federal Fulminense: As experiências coloniais portuguesa e espanhola. Comparações, denúncias e apologia ao longo dos séculos XVI e XVII. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Em Defesa das Mulheres no Renascimento: Valla, Fonte e Tarabotti. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>História em  Estudos Culturais - III  Diálogos sobre História - Ciclo de Minicursos Online da UFPR. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Para além dos ossos: escavações arqueológicas no Bairro do Recife. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>VI Colóquio NEJAP - A Espada e a Pena: Guerra e Cultura Marcial no Japão. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>De escravo a senhor: trajetórias (séculos XVII-XIX). 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>I Colóquio de Filologia e História: documentação histórica e narrativas de violência e de resistência nos séculos XVIII e XIX. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>OLHARES CONTEMPORÂNEOS SOBRE O ORIENTE MÉDIO.OLHARES CONTEMPORÂNEOS SOBRE O ORIENTE MÉDIO. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>SILVA, M. P.. Seminário Discente da Pós-Graduação em História Moderna. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>19º Seminário Nacional de História da Ciência e da Tecnologia (19SNHCT).Se essa rua fosse minha eu mandava arborizar: história ambiental urbana na cidade do Rio de Janeiro. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Que doidice é essa: projeto colonial, exclusão social e loucura | Instituto Pretos Novos. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Quilombo, um teto para os sambistas | Instituto Pretos Novos. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>15 anos da Lei 11.645/2008 e as questões indígenas na escola: desafios e  e  potencialidades | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>África e diáspora: o perigo da história única | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Ainda sim me levanto: os arquétipos iorubás e a insubmissão feminina | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Encontro Internacional História &amp; Parcerias.ÁRVORES E CIDADE: A ARBORIZAÇÃO URBANA VOLUNTÁRIA NO RIO DE JANEIRO.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Favela: reafirmando a integração de cidade e sociedade | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Habemus Muquifu: Museu dos Quilombos e Favelas Urbana | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>História, Ambiente e Conhecimento no Antropoceno.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>O Afro-Patrimônio de Belo Horizonte | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Periferia e sustentabilidade | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Racismo Ambiental | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>XI Encontro de Pesquisa em História Ephis UFMG Narrativas em disputa: nostalgia, identidades e apropriações do passado.Arborização urbana voluntária: dinâmicas da natureza urbana no Rio de Janeiro.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>X Seminário de História Ambiental - Meio Ambiente, História e Ensino. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política da UERJ.Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política da UERJ.Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>8o Seminário Fluminense de Pós-Graduandos em História | 8a Jornada de Pós-Graduação em História das Ciências e da Saúde.Grupos voluntários de arborização urbana: interação socioambiental na cidade do Rio de Janeiro (1992-2022). 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Lauch of the Atlas of the Other World.A favela?s strategies and dynamics  to respond to changes in its  urban ecosystem  Morro da Babilônia.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>X Encontro de Pesquisa em História da EPHIS UFMG ? Tempo, Memória e Reminiscência: o (re)fazer histórico e suas perspectivas. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Bíblia - Oralidade e cultura africana | Instituto Pretos Novos. 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Darwin Day UFRJ 2021. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>IV Encontro Fluminense de Arborização urbana. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>PRÉ-ENCONTRO NACIONAL DOS PLANTADORES DE ÁRVORES.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; SALES, G. P. S. ; SILVA, Amanda Guimarães . IV Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; MOREIRA, P. F. ; SALES, G. P. S. ; SILVA, Amanda Guimarães . III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; SALES, G. P. S. ; MOREIRA, P. F. . II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Paula Mello dos Santos</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>SANTOS, P. M.; CARVALHO, E. F. ; BARBOSA, M. . Entre Reinos e Ultramares: redes sociais, trajetórias e fios narrativos nas monarquias modernas (séculos XVI-XIX). 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Olimpíada Nacional em História do Brasil. Orientação de equipes discentes durante a 14ª ONHB. 2022. (Olimpíada).</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Olimpíada Nacional em História do Brasil. Orientação de equipes discentes durante a 13ª ONHB. 2021. (Olimpíada).</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>BRASIL, R. N. S.. Cinema na Praça. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>BRASIL, R. N. S.; GOMES, M. M. . Papo com a realizadora - Pastor Cláudio. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>BRASIL, R. N. S.; ALMEIDA, R. G. ; PIMENTEL, I. I. . Roda de Conversa sobre masculinidade hegemônica. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>32º Simpósio Nacional de História da ANPUH.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>32º Simpósio Nacional de História da ANPUH.A experiência da I Guerra em imagens de luto: uma análise da obra de Käthe Kollwitz (1914 1945).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>I Jornada de estudos em pensamento crítico contemporâneo: experiências, memórias e mediações das crises do século XX.Como olhar as imagens de luto?: uma análise da obra de Käthe Kollwitz (1914-45). 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.Quase heróis: os inválidos da Primeira Guerra Mundial em Portugal.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Jornada de estudos históricos Prof. Manoel Salgado Guimarães.MEDIAÇÕES E SINTOMAS DO LUTO: UMA ANÁLISE DA OBRA DE KÄTHE KOLLWITZ (1914-1945).
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>XVIII Semana de História da UERJ "Os caminhos da democracia"."Alguma coisa, mesmo assim, ali se mostra": sintomas visuais do luto na obra de Käthe Kollwitz (1914-1945).
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>37ª Semana de História da UFJF.A obra de Käthe Kollwitz e o vazio na representação do luto (1914 - 1945).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Jornada de História da UFBA: História em debate.Torre de mães: a agência feminina na obra de Käthe Kollwitz (1914 - 1945).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Semana de História PUC-Rio 2021.Aqui jaz o melhor da juventude alemã: uma análise da geometria da memória na obra de Käthe Kollwitz (1914 1945).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).Käthe Kollwitz: a arte como expressão do luto e da guerra. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Thayná Fuly Garcia</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Ceará Científico 2022. As relações sócio-políticas em tempos de seca: uma análise das consequências históricas da construção do açude Pereira de Miranda através da imprensa brasileira (1950-1990). 2022. (Feira).</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Ibero-Dutch Imperial Entanglements in the Long Seventeenth Century: Geopolitical Shifts ins Global Perspective.Priest Antônio Vieira: the Hidden Ambassador in the Negotiations between Portugal and the Netherlands (1646-1649). 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>II Colóquio Internacional de História e Diplomacia.Francisco de Sousa Coutinho e a embaixada portuguesa em Haia: negócios e negociações. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Independências do Brasil: os gritos e os silêncios da história.A diplomacia na Independência do Brasil. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Ciclo de dabates: temas e questões na pesquisa histórica.Um Jesuíta diplomata: as missões do Padre Antônio Vieira entre 1646-1648. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Thiago Groh de Mello Cesar</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>GROH, Thiago; CAIXETA, V. L. ; BATISTA, D. J. ; SILVA, M. P. . IX Semana de História e V Encontro do Mestrado Profissional em História (ProfHistoria): A história e as disputas de narrativas nos tempos de redes sociais". 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Thiago Vinícius Ferreira</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Permanent Seminar CLAVIS. A New Brazilian Subject: Brasilia as Imagined by Mário Pedrosa. 2022. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Encontro Internacional História &amp; Parcerias 4º edição.Da excepcionalidade de Don Jayme à ?normalidade? de João Miranda: condições de vida e trabalho por um intelectual negro pós-1888. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.coordenador do ST2.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.?Colonos ?jecas? e padeiros rebeldes: raça e classe trabalhadora no pós-abolição em Barra Mansa (1888-1929)?.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.Posibilidades teóricas y metodológicas entre raza (color) y sindicalismo: agendas del Centro Operário de Barra Mansa-RJ como muestras (1933). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Semana de História Política da UERJ."Com vinagre não se apanha moscas": migração, trabalho rural e relações raciais em Barra Mansa -RJ(1888-1929).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Coordenação Mesa "Debates amplos da historiografia" na XII Semana de História da UNIFESP.. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Classe trabalhadora negra e historiografia no Brasil. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Palmares:  O povo negro pode dançar. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Thompson Clímaco Alves</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Volta Redonda Situada no Cenário Nacional: CSN, classe trabalhadora e racismo. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Valéria Dorneles Fernandes</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>IX Simposio de Orthoptera e II Simposio de insetos osthopteroides.É preciso conhece-lo para melhor destrui-lo: nuvens de gafanhotos e ciência na América do Sul (1897-1952).
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Valéria Dorneles Fernandes</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>V Escuela de Posgrado de SOLCHA.Coordenaciòn de grupos de trabajo.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Valéria Dorneles Fernandes</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>X Simposio Sociedad Latinoamericana y Caribeña de Historia Ambiental.Las influencias climaticas y ambientales en la formación de nubes de  langostas (S.CANCELLATA.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Valéria Dorneles Fernandes</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>DORNELES FERNANDES, VALERIA. V Escuela de Posgrados de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Vanderlei Marinho Costa</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>COSTA, Vanderlei Marinho. Estudando tópicos de história do século XX através da história das HQs. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Vinner Stutz de Oliveira</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>4º Simpósio Sudeste da ABHR.Da Figueira ao Templo.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Vinner Stutz de Oliveira</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>XI Seminário Interno do Programa de Pósgraduação em História Social: Experiências e saberes: História, política, tecnologias e resistências.Dos cantões da Suíça à serra de Macaé: imigração, trabalho e pertencimento na imigração suíça e alemã à Serra Fluminense no século XIX. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História ? História, Verdade e Tecnologia, promovido pela Associação Nacional de História - ANPUH-Brasil.Murray Rothbard e a redefinição do libertarianismo estadunidense na década de 1970.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>XXXVII Semana de História da Universidade Federal de Juiz de Fora,.Esquerda e direita dentro do libertarianismo estadunidense: o surgimento do movimento libertário independente. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>COSTA, V. P. P.. 1ª Semana Acadêmica da UnDF. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Arquivo Faz Escola - Arquivo Nacional.Palestra sobre o documentário "Colcha de Retalhos". 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio.Criando a Associação Profissional de Empregadas Domésticas do Rio de Janeiro.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>I Roda de Conversa no CREJA: 'Trabalhadoras Domésticas e a luta por direitos'.'Trabalhadoras Domésticas e a luta por direitos'. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Iº Congresso de la Red de Investigación sobre Trabajo del Hogar  em América Latina. Roda de Conversa sobre o Documentário "Colcha de Retalhos". 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Iº Congresso de la Red de Investigación sobre Trabajo del Hogar  em América Latina. Trabalhadoras Domésicas e o Regime Militar Brasileiro. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>VII ENCONTRO ESTADUAL DE HISTÓRIA ? ANPUH-PI.A experiência de trabalhadoras domésticas na Ditadura Militar brasileira.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>VII Seminário Internacional Mundos do Trabalho.A Juventude Operária Católica e a formação da primeira Associação Profissional de trabalhadoras domésticas do Rio de Janeiro. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.História Oral e Memória de Trabalhadoras Domésticas Sindicalizadas.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C382" t="inlineStr">
         <is>
           <t>3º Encontro Internacional História &amp; Parcerias e 7º Seminário Fluminense de Pós-Graduandos em História  ria.A criação da Associação Profissional de Empregadas Domésticas do Rio de Janeiro na década de 1960.
 						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>GETIRANA, Y.; VERAS, A. ; PIRES, I. ; CHRISTOVAO, J. ; FARIAS, L. . Podcast Vale Mais 27 - Trabalhadoras Domésticas Organizadas. 2022.
-							(Programa de rádio ou TV/Entrevista).</t>
         </is>
       </c>
     </row>
